--- a/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
+++ b/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MediaLab\Documents\GitHub\lapei\03_Sebrae\01_Relatório2022\Relatório_Sebrae2022\00_capítulo_PNADc\Planilha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\lapei\03_Sebrae\01_Relatório2022\Relatório_Sebrae2022\00_capítulo_PNADc\Planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E6C70-A43B-4DF1-806E-B972235A0549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9135"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Trab. Melhor ID" sheetId="1" r:id="rId1"/>
-    <sheet name="Total Tipo de Area" sheetId="2" r:id="rId2"/>
-    <sheet name="Média de Renda" sheetId="3" r:id="rId3"/>
-    <sheet name="Total Raça" sheetId="4" r:id="rId4"/>
-    <sheet name="Escolaridade" sheetId="5" r:id="rId5"/>
+    <sheet name="Calculo Tipo de Area" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabela Tipo de Area" sheetId="6" r:id="rId3"/>
+    <sheet name="Média de Renda" sheetId="3" r:id="rId4"/>
+    <sheet name="Calculo Total Raça" sheetId="4" r:id="rId5"/>
+    <sheet name="Calculo Escolaridade M" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="40">
   <si>
     <t>Sexo</t>
   </si>
@@ -78,13 +88,82 @@
     <t xml:space="preserve">Trabalhadores por Contra Própria </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>totais cap.</t>
+  </si>
+  <si>
+    <t>total RM</t>
+  </si>
+  <si>
+    <t>total ride</t>
+  </si>
+  <si>
+    <t>total UF</t>
+  </si>
+  <si>
+    <t>Trabalhadores por Conta Propria</t>
+  </si>
+  <si>
+    <t>Cor/Raça</t>
+  </si>
+  <si>
+    <t>Trabalhadores por Conta Própria</t>
+  </si>
+  <si>
+    <t>Branca</t>
+  </si>
+  <si>
+    <t>Preta</t>
+  </si>
+  <si>
+    <t>Amarela</t>
+  </si>
+  <si>
+    <t>Parda</t>
+  </si>
+  <si>
+    <t>Indígena</t>
+  </si>
+  <si>
+    <t>Escolaridade</t>
+  </si>
+  <si>
+    <t>Sem instrução e menos de 1 ano de estudo</t>
+  </si>
+  <si>
+    <t>Fundamental incompleto ou equivalente</t>
+  </si>
+  <si>
+    <t>Fundamental completo ou equivalente</t>
+  </si>
+  <si>
+    <t>Médio incompleto ou equivalente</t>
+  </si>
+  <si>
+    <t>Médio completo ou equivalente</t>
+  </si>
+  <si>
+    <t>Superior incompleto ou equivalente</t>
+  </si>
+  <si>
+    <t>Superior completo ou equivalente</t>
+  </si>
+  <si>
+    <t>Sem instrução até fundamental completo</t>
+  </si>
+  <si>
+    <t>Superior completo e incompleto</t>
+  </si>
+  <si>
+    <t>Médio completo e  imcompleto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Médio completo e  imcompleto </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,12 +180,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -136,6 +227,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +540,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -558,11 +682,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +697,7 @@
     <col min="7" max="7" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -601,126 +725,1662 @@
       <c r="I1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2/C3</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>14588.04</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/E4</f>
+        <v>0.48552611609460744</v>
+      </c>
+      <c r="G2" s="7">
+        <v>11464.59</v>
+      </c>
+      <c r="H2" s="3">
+        <f>G2/G4</f>
+        <v>0.42407100530431374</v>
+      </c>
+      <c r="I2" s="7">
+        <f>SUM(C2,E2,G2)</f>
+        <v>26052.63</v>
+      </c>
+      <c r="J2" s="3">
+        <f>I2/I4</f>
+        <v>0.4150399433627236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="7">
+        <v>5690.94</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3/C3</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>15457.8</v>
+      </c>
+      <c r="F3" s="3">
+        <f>E3/E4</f>
+        <v>0.5144738839053925</v>
+      </c>
+      <c r="G3" s="7">
+        <v>15570.01</v>
+      </c>
+      <c r="H3" s="3">
+        <f>G3/G4</f>
+        <v>0.57592899469568626</v>
+      </c>
+      <c r="I3" s="7">
+        <f>SUM(C3,E3,G3)</f>
+        <v>36718.75</v>
+      </c>
+      <c r="J3" s="3">
+        <f>I3/I4</f>
+        <v>0.58496005663727635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8">
+        <f>SUM(C2,C3)</f>
+        <v>5690.94</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="8">
+        <f>SUM(E2,E3)</f>
+        <v>30045.84</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8">
+        <f>SUM(G2,G3)</f>
+        <v>27034.6</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="8">
+        <f>SUM(I2,I3)</f>
+        <v>62771.380000000005</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <f>C5/C7</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3424.54</v>
+      </c>
+      <c r="F5" s="3">
+        <f>E5/E7</f>
+        <v>0.28596862022691838</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2413.3000000000002</v>
+      </c>
+      <c r="H5" s="3">
+        <f>G5/G7</f>
+        <v>0.21071960575097839</v>
+      </c>
+      <c r="I5" s="7">
+        <f>SUM(C5,E5,G5)</f>
+        <v>5837.84</v>
+      </c>
+      <c r="J5" s="3">
+        <f>I5/I7</f>
+        <v>0.24135473255112083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C6" s="7">
+        <v>759.91</v>
+      </c>
+      <c r="D6" s="3">
+        <f>C6/C7</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8550.69</v>
+      </c>
+      <c r="F6" s="3">
+        <f>E6/E7</f>
+        <v>0.71403137977308162</v>
+      </c>
+      <c r="G6" s="7">
+        <v>9039.36</v>
+      </c>
+      <c r="H6" s="3">
+        <f>G6/G7</f>
+        <v>0.78928039424902163</v>
+      </c>
+      <c r="I6" s="7">
+        <f>SUM(C6,E6,G6)</f>
+        <v>18349.96</v>
+      </c>
+      <c r="J6" s="3">
+        <f>I6/I7</f>
+        <v>0.75864526744887917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8">
+        <f>SUM(C5,C6)</f>
+        <v>759.91</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="8">
+        <f>SUM(E5,E6)</f>
+        <v>11975.23</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8">
+        <f>SUM(G5,G6)</f>
+        <v>11452.66</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="8">
+        <f>SUM(I5,I6)</f>
+        <v>24187.8</v>
+      </c>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
+        <v>975.48</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8/C10</f>
+        <v>0.58096446247029598</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2086.56</v>
+      </c>
+      <c r="F8" s="3">
+        <f>E8/E10</f>
+        <v>0.19710672835855864</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4655.91</v>
+      </c>
+      <c r="H8" s="3">
+        <f>G8/G10</f>
+        <v>0.33626220292111769</v>
+      </c>
+      <c r="I8" s="7">
+        <f>SUM(C8,E8,G8)</f>
+        <v>7717.95</v>
+      </c>
+      <c r="J8" s="3">
+        <f>I8/I10</f>
+        <v>0.29558141601189997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="C9" s="7">
+        <v>703.59</v>
+      </c>
+      <c r="D9" s="3">
+        <f>C9/C10</f>
+        <v>0.41903553752970391</v>
+      </c>
+      <c r="E9" s="7">
+        <v>8499.3799999999992</v>
+      </c>
+      <c r="F9" s="3">
+        <f>E9/E10</f>
+        <v>0.80289327164144142</v>
+      </c>
+      <c r="G9" s="7">
+        <v>9190.16</v>
+      </c>
+      <c r="H9" s="3">
+        <f>G9/G10</f>
+        <v>0.66373779707888236</v>
+      </c>
+      <c r="I9" s="7">
+        <f>SUM(C9,E9,G9)</f>
+        <v>18393.129999999997</v>
+      </c>
+      <c r="J9" s="3">
+        <f>I9/I10</f>
+        <v>0.70441858398809998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8">
+        <f>SUM(C8,C9)</f>
+        <v>1679.0700000000002</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="8">
+        <f>SUM(E8,E9)</f>
+        <v>10585.939999999999</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="8">
+        <f>SUM(G8,G9)</f>
+        <v>13846.07</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8">
+        <f>SUM(I8,I9)</f>
+        <v>26111.079999999998</v>
+      </c>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2184.9899999999998</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11/C13</f>
+        <v>0.23756708446771679</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10450.77</v>
+      </c>
+      <c r="F11" s="3">
+        <f>E11/E13</f>
+        <v>0.21340889153174231</v>
+      </c>
+      <c r="G11" s="7">
+        <v>15890.12</v>
+      </c>
+      <c r="H11" s="3">
+        <f>G11/G13</f>
+        <v>0.30529601000917611</v>
+      </c>
+      <c r="I11" s="7">
+        <f>SUM(C11,E11,G11)</f>
+        <v>28525.88</v>
+      </c>
+      <c r="J11" s="3">
+        <f>I11/I13</f>
+        <v>0.25881739387952263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7012.37</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12/C13</f>
+        <v>0.7624329155322831</v>
+      </c>
+      <c r="E12" s="7">
+        <v>38519.870000000003</v>
+      </c>
+      <c r="F12" s="3">
+        <f>E12/E13</f>
+        <v>0.78659110846825775</v>
+      </c>
+      <c r="G12" s="7">
+        <v>36158.120000000003</v>
+      </c>
+      <c r="H12" s="3">
+        <f>G12/G13</f>
+        <v>0.69470398999082383</v>
+      </c>
+      <c r="I12" s="7">
+        <f>SUM(C12,E12,G12)</f>
+        <v>81690.360000000015</v>
+      </c>
+      <c r="J12" s="3">
+        <f>I12/I13</f>
+        <v>0.74118260612047737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="8">
+        <f>SUM(C11,C12)</f>
+        <v>9197.36</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="8">
+        <f>SUM(E11,E12)</f>
+        <v>48970.64</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8">
+        <f>SUM(G11,G12)</f>
+        <v>52048.240000000005</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="8">
+        <f>SUM(I11,I12)</f>
+        <v>110216.24000000002</v>
+      </c>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <f>SUM(C2,C5,C8,C11)</f>
+        <v>3160.47</v>
+      </c>
+      <c r="D14" s="3">
+        <f>C14/C16</f>
+        <v>0.18239850686316605</v>
+      </c>
+      <c r="E14" s="7">
+        <f>SUM(E2,E5,E8,E11)</f>
+        <v>30549.910000000003</v>
+      </c>
+      <c r="F14" s="3">
+        <f>E14/E16</f>
+        <v>0.3007542505659464</v>
+      </c>
+      <c r="G14" s="7">
+        <f>SUM(G2,G5,G8,G11)</f>
+        <v>34423.919999999998</v>
+      </c>
+      <c r="H14" s="3">
+        <f>G14/G16</f>
+        <v>0.32978925302618078</v>
+      </c>
+      <c r="I14" s="7">
+        <f>SUM(C14,E14,G14)</f>
+        <v>68134.3</v>
+      </c>
+      <c r="J14" s="3">
+        <f>I14/I16</f>
+        <v>0.30514294415470711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" t="s">
         <v>2</v>
       </c>
+      <c r="C15" s="7">
+        <f>SUM(C3,C6,C9,C12)</f>
+        <v>14166.81</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15/C16</f>
+        <v>0.81760149313683395</v>
+      </c>
+      <c r="E15" s="7">
+        <f>SUM(E3,E6,E9,E12)</f>
+        <v>71027.739999999991</v>
+      </c>
+      <c r="F15" s="3">
+        <f>E15/E16</f>
+        <v>0.6992457494340536</v>
+      </c>
+      <c r="G15" s="7">
+        <f>SUM(G3,G6,G9,G12)</f>
+        <v>69957.649999999994</v>
+      </c>
+      <c r="H15" s="3">
+        <f>G15/G16</f>
+        <v>0.67021074697381922</v>
+      </c>
+      <c r="I15" s="7">
+        <f>SUM(C15,E15,G15)</f>
+        <v>155152.19999999998</v>
+      </c>
+      <c r="J15" s="3">
+        <f>I15/I16</f>
+        <v>0.69485705584529289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8">
+        <f>SUM(C14,C15)</f>
+        <v>17327.28</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="8">
+        <f>SUM(E14,E15)</f>
+        <v>101577.65</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="8">
+        <f>SUM(G14,G15)</f>
+        <v>104381.56999999999</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="8">
+        <f>SUM(I14,I15)</f>
+        <v>223286.5</v>
+      </c>
+      <c r="J16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB9EFED-FE7A-4762-8C11-62252D791C0E}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>14588</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.49</v>
+      </c>
+      <c r="G2">
+        <v>11465</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0.42</v>
+      </c>
+      <c r="I2">
+        <v>26053</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>5691</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>15458</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.51</v>
+      </c>
+      <c r="G3">
+        <v>15570</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I3">
+        <v>36719</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3425</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G4">
+        <v>2413</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.21</v>
+      </c>
+      <c r="I4">
+        <v>5838</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>760</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>8551</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="G5">
+        <v>9039</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.79</v>
+      </c>
+      <c r="I5">
+        <v>18350</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>975</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E6">
+        <v>2087</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="G6">
+        <v>4656</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.34</v>
+      </c>
+      <c r="I6">
+        <v>7718</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>704</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.42</v>
+      </c>
+      <c r="E7">
+        <v>8499</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="G7">
+        <v>9190</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.66</v>
+      </c>
+      <c r="I7">
+        <v>18393</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2185</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="E8">
+        <v>10451</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.21</v>
+      </c>
+      <c r="G8">
+        <v>15890</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.31</v>
+      </c>
+      <c r="I8">
+        <v>28526</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>7012</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.76</v>
+      </c>
+      <c r="E9">
+        <v>38520</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.79</v>
+      </c>
+      <c r="G9">
+        <v>36158</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.69</v>
+      </c>
+      <c r="I9">
+        <v>81690</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3160</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="E10">
+        <v>30550</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G10">
+        <v>34424</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="I10">
+        <v>68134</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>14167</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.82</v>
+      </c>
+      <c r="E11">
+        <v>71028</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="G11">
+        <v>69958</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="I11">
+        <v>155152</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>8462</v>
+      </c>
+      <c r="C2">
+        <v>986.06</v>
+      </c>
+      <c r="D2" s="17">
+        <v>2274.3000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17">
+        <v>7684.1</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1991.8</v>
+      </c>
+      <c r="D3" s="17">
+        <v>2721.4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1973377</v>
+      </c>
+      <c r="D2" s="18">
+        <f>C2/C12</f>
+        <v>0.62439332618460985</v>
+      </c>
+      <c r="E2" s="17">
+        <v>14757127</v>
+      </c>
+      <c r="F2" s="18">
+        <f>E2/E12</f>
+        <v>0.48304988071484223</v>
+      </c>
+      <c r="G2" s="19">
+        <v>12914799</v>
+      </c>
+      <c r="H2" s="18">
+        <f>G2/G12</f>
+        <v>0.37516936262657152</v>
+      </c>
+      <c r="I2" s="17">
+        <f>SUM(C2,E2,G2)</f>
+        <v>29645303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <f>C4/C12</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>919308</v>
+      </c>
+      <c r="F4" s="18">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="G4" s="19">
+        <v>3145630</v>
+      </c>
+      <c r="H4" s="18">
+        <f>G4/G12</f>
+        <v>9.1379200106716504E-2</v>
+      </c>
+      <c r="I4" s="17">
+        <f>SUM(C4,E4,G4)</f>
+        <v>4064938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18">
+        <f>C6/C12</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>86453</v>
+      </c>
+      <c r="F6" s="18">
+        <f>E6/E12</f>
+        <v>2.8298944189773696E-3</v>
+      </c>
+      <c r="G6" s="19">
+        <v>565362</v>
+      </c>
+      <c r="H6" s="18">
+        <f>G6/G12</f>
+        <v>1.6423523214978704E-2</v>
+      </c>
+      <c r="I6" s="17">
+        <f>SUM(C6,E6,G6)</f>
+        <v>651815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1187094</v>
+      </c>
+      <c r="D8" s="18">
+        <f>C8/C12</f>
+        <v>0.3756066738153902</v>
+      </c>
+      <c r="E8" s="17">
+        <v>14569684</v>
+      </c>
+      <c r="F8" s="18">
+        <f>E8/E12</f>
+        <v>0.47691424748549938</v>
+      </c>
+      <c r="G8" s="19">
+        <v>17798126</v>
+      </c>
+      <c r="H8" s="18">
+        <f>G8/G12</f>
+        <v>0.51702791405173332</v>
+      </c>
+      <c r="I8" s="17">
+        <f>SUM(C8,E8,G8)</f>
+        <v>33554904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <f>C10/C12</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>217331</v>
+      </c>
+      <c r="F10" s="18">
+        <f>E10/E12</f>
+        <v>7.1139669412370963E-3</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <f>G10/G12</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <f>SUM(C10,E10,G10)</f>
+        <v>217331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17">
+        <f>SUM(C2,C4,C6,C8,C10)</f>
+        <v>3160471</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17">
+        <f>SUM(E2,E4,E6,E8,E10)</f>
+        <v>30549903</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="19">
+        <f>SUM(G2,G4,G6,G8,G10)</f>
+        <v>34423917</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="17">
+        <f>SUM(C12,E12,G12)</f>
+        <v>68134291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1069.1199999999999</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="26">
+        <v>8334.35</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22">
+        <v>10573.56</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>4188.18</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="26">
+        <v>36006.32</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22">
+        <v>27518.89</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1744.03</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="26">
+        <v>6843.23</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22">
+        <v>7697.01</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26">
+        <v>113.2</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="26">
+        <v>3861.44</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22">
+        <v>626.66999999999996</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26">
+        <v>2088.3200000000002</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="26">
+        <v>9777.8799999999992</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22">
+        <v>13167.24</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26">
+        <v>1456.85</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="26">
+        <v>1660.75</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22">
+        <v>2834.97</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26">
+        <v>3507.11</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="26">
+        <v>4543.76</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22">
+        <v>7539.32</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>18233.59</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.48</v>
+      </c>
+      <c r="E18" s="1">
+        <v>223573.49</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0.74</v>
+      </c>
+      <c r="G18" s="1">
+        <v>566665.43000000005</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0.59</v>
+      </c>
+      <c r="I18" s="1">
+        <v>808472.51</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>19975.09</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.52</v>
+      </c>
+      <c r="E19" s="1">
+        <v>76673.87</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.26</v>
+      </c>
+      <c r="G19" s="1">
+        <v>391560.03</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0.41</v>
+      </c>
+      <c r="I19" s="1">
+        <v>488208.99</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>38208.68</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>300247.36</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>958225.46</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1296681.5</v>
+      </c>
+      <c r="J21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
+++ b/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\lapei\03_Sebrae\01_Relatório2022\Relatório_Sebrae2022\00_capítulo_PNADc\Planilha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MediaLab\Documents\GitHub\lapei\03_Sebrae\01_Relatório2022\Relatório_Sebrae2022\00_capítulo_PNADc\Planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E6C70-A43B-4DF1-806E-B972235A0549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Total Trab. Melhor ID" sheetId="1" r:id="rId1"/>
+    <sheet name="Total Trab. Melhor ID " sheetId="1" r:id="rId1"/>
     <sheet name="Calculo Tipo de Area" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabela Tipo de Area" sheetId="6" r:id="rId3"/>
+    <sheet name="Tab. e Graf. Tipo de Area" sheetId="6" r:id="rId3"/>
     <sheet name="Média de Renda" sheetId="3" r:id="rId4"/>
-    <sheet name="Calculo Total Raça" sheetId="4" r:id="rId5"/>
-    <sheet name="Calculo Escolaridade M" sheetId="5" r:id="rId6"/>
+    <sheet name="Tabela e Grafico Total Raça" sheetId="4" r:id="rId5"/>
+    <sheet name="Calculo Escolaridade Ho" sheetId="5" r:id="rId6"/>
+    <sheet name="Calculo Escolaridade M" sheetId="7" r:id="rId7"/>
+    <sheet name="Calculo Escolaridade H e M" sheetId="9" r:id="rId8"/>
+    <sheet name="Tabela Escolaridade" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="70">
   <si>
     <t>Sexo</t>
   </si>
@@ -86,9 +88,6 @@
   </si>
   <si>
     <t xml:space="preserve">Trabalhadores por Contra Própria </t>
-  </si>
-  <si>
-    <t>totais cap.</t>
   </si>
   <si>
     <t>total RM</t>
@@ -159,12 +158,105 @@
   <si>
     <t xml:space="preserve">Médio completo e  imcompleto </t>
   </si>
+  <si>
+    <t>total cap.</t>
+  </si>
+  <si>
+    <t>perfil</t>
+  </si>
+  <si>
+    <t>Empregadoras</t>
+  </si>
+  <si>
+    <t>Trabalhadoras por conta própria</t>
+  </si>
+  <si>
+    <t>Empregadas</t>
+  </si>
+  <si>
+    <t>Empregador(a)</t>
+  </si>
+  <si>
+    <t>Trabalhador(a) Conta Própria</t>
+  </si>
+  <si>
+    <t>Empregado(a)</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Área de UF</t>
+  </si>
+  <si>
+    <t>Empregadores(as)</t>
+  </si>
+  <si>
+    <t>Trabalhadores(as) por Conta Própria</t>
+  </si>
+  <si>
+    <t>Empregados(as)</t>
+  </si>
+  <si>
+    <t>Reg. Metrop.</t>
+  </si>
+  <si>
+    <t>RIDE</t>
+  </si>
+  <si>
+    <t>Demais Mun.</t>
+  </si>
+  <si>
+    <t>perfis</t>
+  </si>
+  <si>
+    <t>Demais Municípios</t>
+  </si>
+  <si>
+    <t>Região Metropolitana</t>
+  </si>
+  <si>
+    <t>RM (Região Metropolitana, excluindo a capital)</t>
+  </si>
+  <si>
+    <t>RIDE (Região Integrada de Desenvolvimento Econômico, excluindo a capital)</t>
+  </si>
+  <si>
+    <t>Demais municípios</t>
+  </si>
+  <si>
+    <t>Mulheres Empreendedoras (Melhor idade) por tipo de area</t>
+  </si>
+  <si>
+    <t>Tabela com as porcentagens para geração do grafico</t>
+  </si>
+  <si>
+    <t>Tabela com os dados completos (total e porcentagem)</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>Resto da RM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resto da RIDE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demais Municipios </t>
+  </si>
+  <si>
+    <t>Ocupação de Mulheres (Melhor idade) por tipo de área</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +265,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -213,20 +320,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -242,9 +340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -253,13 +348,42 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,6 +400,5127 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Total Trab. Melhor ID '!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feminino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Total Trab. Melhor ID '!$B$8:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregador(a)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhador(a) Conta Própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregado(a)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Total Trab. Melhor ID '!$B$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Total Trab. Melhor ID '!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Total Trab. Melhor ID '!$B$8:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregador(a)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhador(a) Conta Própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregado(a)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Total Trab. Melhor ID '!$B$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="974542544"/>
+        <c:axId val="974534928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="974542544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974534928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="974534928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974542544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Empregadores(as)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$A$19:$B$26</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mulher</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Homem</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Mulher</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Homem</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Mulher</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Homem</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Mulher</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Homem</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Capital</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Reg. Metrop.</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>RIDE</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Demais Mun.</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$C$19:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trabalhadores(as) por Conta Própria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$A$19:$B$26</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mulher</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Homem</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Mulher</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Homem</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Mulher</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Homem</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Mulher</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Homem</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Capital</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Reg. Metrop.</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>RIDE</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Demais Mun.</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$D$19:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Empregados(as)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$A$19:$B$26</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mulher</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Homem</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Mulher</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Homem</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Mulher</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Homem</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Mulher</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Homem</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Capital</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Reg. Metrop.</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>RIDE</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Demais Mun.</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$E$19:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="974539824"/>
+        <c:axId val="974544720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="974539824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974544720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="974544720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974539824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$A$49:$E$49</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>perfis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Demais Municípios</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Capital</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Região Metropolitana</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RIDE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$A$50:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$C$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Empregadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$B$77</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Capital</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Resto da RM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Resto da RIDE </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Demais Municipios </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$C$74:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$D$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trabalhadores por Contra Própria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$B$77</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Capital</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Resto da RM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Resto da RIDE </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Demais Municipios </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$D$74:$D$77</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$E$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Empregados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$B$77</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Capital</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Resto da RM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Resto da RIDE </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Demais Municipios </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tab. e Graf. Tipo de Area'!$E$74:$E$77</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="974530032"/>
+        <c:axId val="974536560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="974530032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974536560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="974536560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974530032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Branca</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$A$17:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por conta própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela e Grafico Total Raça'!$B$17:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.62439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37519999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$A$17:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por conta própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela e Grafico Total Raça'!$C$17:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1399999999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amarela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$A$17:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por conta própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela e Grafico Total Raça'!$D$17:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6400000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$A$17:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por conta própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela e Grafico Total Raça'!$E$17:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.37559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Indígena</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$A$17:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por conta própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela e Grafico Total Raça'!$F$17:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="974532752"/>
+        <c:axId val="974534384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="974532752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974534384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="974534384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974532752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1233487</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1252537</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1338262</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,19 +5785,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -676,24 +5921,65 @@
         <v>223286.40000000002</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="E16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -730,34 +6016,34 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="D2" s="3">
         <f>C2/C3</f>
         <v>0</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="4">
         <v>14588.04</v>
       </c>
       <c r="F2" s="3">
         <f>E2/E4</f>
         <v>0.48552611609460744</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="4">
         <v>11464.59</v>
       </c>
       <c r="H2" s="3">
         <f>G2/G4</f>
         <v>0.42407100530431374</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="4">
         <f>SUM(C2,E2,G2)</f>
         <v>26052.63</v>
       </c>
@@ -767,32 +6053,32 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="20"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>5690.94</v>
       </c>
       <c r="D3" s="3">
         <f>C3/C3</f>
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>15457.8</v>
       </c>
       <c r="F3" s="3">
         <f>E3/E4</f>
         <v>0.5144738839053925</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>15570.01</v>
       </c>
       <c r="H3" s="3">
         <f>G3/G4</f>
         <v>0.57592899469568626</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <f>SUM(C3,E3,G3)</f>
         <v>36718.75</v>
       </c>
@@ -801,60 +6087,60 @@
         <v>0.58496005663727635</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8">
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5">
         <f>SUM(C2,C3)</f>
         <v>5690.94</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8">
+      <c r="D4" s="8"/>
+      <c r="E4" s="5">
         <f>SUM(E2,E3)</f>
         <v>30045.84</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="8">
+      <c r="F4" s="8"/>
+      <c r="G4" s="5">
         <f>SUM(G2,G3)</f>
         <v>27034.6</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="8">
+      <c r="H4" s="8"/>
+      <c r="I4" s="5">
         <f>SUM(I2,I3)</f>
         <v>62771.380000000005</v>
       </c>
-      <c r="J4" s="11"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
       <c r="D5" s="3">
         <f>C5/C7</f>
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>3424.54</v>
       </c>
       <c r="F5" s="3">
         <f>E5/E7</f>
         <v>0.28596862022691838</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>2413.3000000000002</v>
       </c>
       <c r="H5" s="3">
         <f>G5/G7</f>
         <v>0.21071960575097839</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <f>SUM(C5,E5,G5)</f>
         <v>5837.84</v>
       </c>
@@ -864,32 +6150,32 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="21"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>759.91</v>
       </c>
       <c r="D6" s="3">
         <f>C6/C7</f>
         <v>1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>8550.69</v>
       </c>
       <c r="F6" s="3">
         <f>E6/E7</f>
         <v>0.71403137977308162</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="4">
         <v>9039.36</v>
       </c>
       <c r="H6" s="3">
         <f>G6/G7</f>
         <v>0.78928039424902163</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <f>SUM(C6,E6,G6)</f>
         <v>18349.96</v>
       </c>
@@ -898,60 +6184,60 @@
         <v>0.75864526744887917</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8">
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5">
         <f>SUM(C5,C6)</f>
         <v>759.91</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8">
+      <c r="D7" s="8"/>
+      <c r="E7" s="5">
         <f>SUM(E5,E6)</f>
         <v>11975.23</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="8">
+      <c r="F7" s="8"/>
+      <c r="G7" s="5">
         <f>SUM(G5,G6)</f>
         <v>11452.66</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="8">
+      <c r="H7" s="8"/>
+      <c r="I7" s="5">
         <f>SUM(I5,I6)</f>
         <v>24187.8</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>975.48</v>
       </c>
       <c r="D8" s="3">
         <f>C8/C10</f>
         <v>0.58096446247029598</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>2086.56</v>
       </c>
       <c r="F8" s="3">
         <f>E8/E10</f>
         <v>0.19710672835855864</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="4">
         <v>4655.91</v>
       </c>
       <c r="H8" s="3">
         <f>G8/G10</f>
         <v>0.33626220292111769</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <f>SUM(C8,E8,G8)</f>
         <v>7717.95</v>
       </c>
@@ -961,32 +6247,32 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="21"/>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>703.59</v>
       </c>
       <c r="D9" s="3">
         <f>C9/C10</f>
         <v>0.41903553752970391</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>8499.3799999999992</v>
       </c>
       <c r="F9" s="3">
         <f>E9/E10</f>
         <v>0.80289327164144142</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>9190.16</v>
       </c>
       <c r="H9" s="3">
         <f>G9/G10</f>
         <v>0.66373779707888236</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <f>SUM(C9,E9,G9)</f>
         <v>18393.129999999997</v>
       </c>
@@ -995,60 +6281,60 @@
         <v>0.70441858398809998</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8">
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5">
         <f>SUM(C8,C9)</f>
         <v>1679.0700000000002</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8">
+      <c r="D10" s="8"/>
+      <c r="E10" s="5">
         <f>SUM(E8,E9)</f>
         <v>10585.939999999999</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="8">
+      <c r="F10" s="8"/>
+      <c r="G10" s="5">
         <f>SUM(G8,G9)</f>
         <v>13846.07</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="8">
+      <c r="H10" s="8"/>
+      <c r="I10" s="5">
         <f>SUM(I8,I9)</f>
         <v>26111.079999999998</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>2184.9899999999998</v>
       </c>
       <c r="D11" s="3">
         <f>C11/C13</f>
         <v>0.23756708446771679</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>10450.77</v>
       </c>
       <c r="F11" s="3">
         <f>E11/E13</f>
         <v>0.21340889153174231</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
         <v>15890.12</v>
       </c>
       <c r="H11" s="3">
         <f>G11/G13</f>
         <v>0.30529601000917611</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <f>SUM(C11,E11,G11)</f>
         <v>28525.88</v>
       </c>
@@ -1058,32 +6344,32 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="21"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>7012.37</v>
       </c>
       <c r="D12" s="3">
         <f>C12/C13</f>
         <v>0.7624329155322831</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <v>38519.870000000003</v>
       </c>
       <c r="F12" s="3">
         <f>E12/E13</f>
         <v>0.78659110846825775</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="4">
         <v>36158.120000000003</v>
       </c>
       <c r="H12" s="3">
         <f>G12/G13</f>
         <v>0.69470398999082383</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="4">
         <f>SUM(C12,E12,G12)</f>
         <v>81690.360000000015</v>
       </c>
@@ -1092,39 +6378,39 @@
         <v>0.74118260612047737</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="8">
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5">
         <f>SUM(C11,C12)</f>
         <v>9197.36</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8">
+      <c r="D13" s="8"/>
+      <c r="E13" s="5">
         <f>SUM(E11,E12)</f>
         <v>48970.64</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="8">
+      <c r="F13" s="8"/>
+      <c r="G13" s="5">
         <f>SUM(G11,G12)</f>
         <v>52048.240000000005</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="8">
+      <c r="H13" s="8"/>
+      <c r="I13" s="5">
         <f>SUM(I11,I12)</f>
         <v>110216.24000000002</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <f>SUM(C2,C5,C8,C11)</f>
         <v>3160.47</v>
       </c>
@@ -1132,7 +6418,7 @@
         <f>C14/C16</f>
         <v>0.18239850686316605</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="4">
         <f>SUM(E2,E5,E8,E11)</f>
         <v>30549.910000000003</v>
       </c>
@@ -1140,7 +6426,7 @@
         <f>E14/E16</f>
         <v>0.3007542505659464</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4">
         <f>SUM(G2,G5,G8,G11)</f>
         <v>34423.919999999998</v>
       </c>
@@ -1148,7 +6434,7 @@
         <f>G14/G16</f>
         <v>0.32978925302618078</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="4">
         <f>SUM(C14,E14,G14)</f>
         <v>68134.3</v>
       </c>
@@ -1158,11 +6444,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="22"/>
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <f>SUM(C3,C6,C9,C12)</f>
         <v>14166.81</v>
       </c>
@@ -1170,7 +6456,7 @@
         <f>C15/C16</f>
         <v>0.81760149313683395</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="4">
         <f>SUM(E3,E6,E9,E12)</f>
         <v>71027.739999999991</v>
       </c>
@@ -1178,7 +6464,7 @@
         <f>E15/E16</f>
         <v>0.6992457494340536</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <f>SUM(G3,G6,G9,G12)</f>
         <v>69957.649999999994</v>
       </c>
@@ -1186,7 +6472,7 @@
         <f>G15/G16</f>
         <v>0.67021074697381922</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="4">
         <f>SUM(C15,E15,G15)</f>
         <v>155152.19999999998</v>
       </c>
@@ -1195,30 +6481,346 @@
         <v>0.69485705584529289</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <f>SUM(C14,C15)</f>
         <v>17327.28</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="8">
+      <c r="D16" s="8"/>
+      <c r="E16" s="5">
         <f>SUM(E14,E15)</f>
         <v>101577.65</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="8">
+      <c r="F16" s="8"/>
+      <c r="G16" s="5">
         <f>SUM(G14,G15)</f>
         <v>104381.56999999999</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="8">
+      <c r="H16" s="8"/>
+      <c r="I16" s="5">
         <f>SUM(I14,I15)</f>
         <v>223286.5</v>
       </c>
-      <c r="J16" s="11"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>14588</v>
+      </c>
+      <c r="E21" s="1">
+        <f>SUM(C21,D21)</f>
+        <v>14588</v>
+      </c>
+      <c r="F21" s="3">
+        <f>E21/E25</f>
+        <v>0.37261813537675609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3425</v>
+      </c>
+      <c r="E22" s="1">
+        <f>SUM(C22,D22)</f>
+        <v>3425</v>
+      </c>
+      <c r="F22" s="3">
+        <f>E22/E25</f>
+        <v>8.7484035759897827E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>975</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2087</v>
+      </c>
+      <c r="E23" s="1">
+        <f>SUM(C23,D23)</f>
+        <v>3062</v>
+      </c>
+      <c r="F23" s="3">
+        <f>E23/E25</f>
+        <v>7.8212005108556831E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2185</v>
+      </c>
+      <c r="D24" s="1">
+        <v>15890</v>
+      </c>
+      <c r="E24" s="1">
+        <f>SUM(C24,D24)</f>
+        <v>18075</v>
+      </c>
+      <c r="F24" s="3">
+        <f>E24/E25</f>
+        <v>0.46168582375478928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <f>SUM(C21,C22:C23,C24)</f>
+        <v>3160</v>
+      </c>
+      <c r="D25" s="1">
+        <f>SUM(D21,D22,D23,D24)</f>
+        <v>35990</v>
+      </c>
+      <c r="E25" s="1">
+        <f>SUM(C25,D25)</f>
+        <v>39150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
+        <f>C29/I29</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>14588</v>
+      </c>
+      <c r="F29" s="11">
+        <f>E29/I29</f>
+        <v>0.55993551606340919</v>
+      </c>
+      <c r="G29">
+        <v>11465</v>
+      </c>
+      <c r="H29" s="11">
+        <f>G29/I29</f>
+        <v>0.44006448393659081</v>
+      </c>
+      <c r="I29">
+        <v>26053</v>
+      </c>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
+        <f>C30/I30</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>3425</v>
+      </c>
+      <c r="F30" s="11">
+        <f>E30/I30</f>
+        <v>0.58667351832819459</v>
+      </c>
+      <c r="G30">
+        <v>2413</v>
+      </c>
+      <c r="H30" s="11">
+        <f>G30/I30</f>
+        <v>0.41332648167180541</v>
+      </c>
+      <c r="I30">
+        <v>5838</v>
+      </c>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>975</v>
+      </c>
+      <c r="D31" s="11">
+        <f>C31/I31</f>
+        <v>0.12632806426535373</v>
+      </c>
+      <c r="E31">
+        <v>2087</v>
+      </c>
+      <c r="F31" s="11">
+        <f>E31/I31</f>
+        <v>0.27040684115055713</v>
+      </c>
+      <c r="G31">
+        <v>4656</v>
+      </c>
+      <c r="H31" s="11">
+        <f>G31/I31</f>
+        <v>0.60326509458408917</v>
+      </c>
+      <c r="I31">
+        <v>7718</v>
+      </c>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2185</v>
+      </c>
+      <c r="D32" s="11">
+        <f>C32/I32</f>
+        <v>7.6596788894342002E-2</v>
+      </c>
+      <c r="E32">
+        <v>10451</v>
+      </c>
+      <c r="F32" s="11">
+        <f>E32/I32</f>
+        <v>0.36636752436373832</v>
+      </c>
+      <c r="G32">
+        <v>15890</v>
+      </c>
+      <c r="H32" s="11">
+        <f>G32/I32</f>
+        <v>0.55703568674191961</v>
+      </c>
+      <c r="I32">
+        <v>28526</v>
+      </c>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>3160</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33">
+        <v>30550</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33">
+        <v>34424</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33">
+        <v>68134</v>
+      </c>
+      <c r="J33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1233,11 +6835,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB9EFED-FE7A-4762-8C11-62252D791C0E}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,372 +6850,742 @@
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>14588</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F3" s="11">
         <v>0.49</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>11465</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H3" s="11">
         <v>0.42</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>26053</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J3" s="11">
         <v>0.42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>5691</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D4" s="11">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>15458</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F4" s="11">
         <v>0.51</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>15570</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H4" s="11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>36719</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J4" s="11">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>3425</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F5" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>2413</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H5" s="11">
         <v>0.21</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>5838</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J5" s="11">
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>760</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>8551</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F6" s="11">
         <v>0.71</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>9039</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H6" s="11">
         <v>0.79</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>18350</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J6" s="11">
         <v>0.76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>975</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D7" s="11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>2087</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F7" s="11">
         <v>0.2</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>4656</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H7" s="11">
         <v>0.34</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>7718</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J7" s="11">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>704</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D8" s="11">
         <v>0.42</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>8499</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F8" s="11">
         <v>0.8</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>9190</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H8" s="11">
         <v>0.66</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>18393</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J8" s="11">
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2185</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D9" s="11">
         <v>0.24</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>10451</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F9" s="11">
         <v>0.21</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>15890</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H9" s="11">
         <v>0.31</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>28526</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J9" s="11">
         <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>7012</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="11">
         <v>0.76</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>38520</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F10" s="11">
         <v>0.79</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>36158</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H10" s="11">
         <v>0.69</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>81690</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J10" s="11">
         <v>0.74</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>3160</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="11">
         <v>0.18</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>30550</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F11" s="11">
         <v>0.3</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>34424</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H11" s="11">
         <v>0.33</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>68134</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J11" s="11">
         <v>0.31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>14167</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="11">
         <v>0.82</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>71028</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F12" s="11">
         <v>0.7</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>69958</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H12" s="11">
         <v>0.67</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>155152</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J12" s="11">
         <v>0.69</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0.37</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+    </row>
+    <row r="73" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="11">
+        <v>0</v>
+      </c>
+      <c r="D74" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E74" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="F74" s="11"/>
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="11">
+        <v>0</v>
+      </c>
+      <c r="D75" s="11">
+        <v>0.59</v>
+      </c>
+      <c r="E75" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="F75" s="11"/>
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="D76" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="E76" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="F76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="J76" s="11"/>
+    </row>
+    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="D77" s="11">
+        <v>0.37</v>
+      </c>
+      <c r="E77" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="J77" s="11"/>
+    </row>
+    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="D78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="J78" s="11"/>
+    </row>
+    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="D79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="J79" s="11"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
+      <c r="D80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="J80" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="9">
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1624,8 +7596,8 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>20</v>
+      <c r="C1" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1635,13 +7607,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="13">
         <v>8462</v>
       </c>
       <c r="C2">
         <v>986.06</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="13">
         <v>2274.3000000000002</v>
       </c>
     </row>
@@ -1649,13 +7621,13 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="13">
         <v>7684.1</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="13">
         <v>1991.8</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>2721.4</v>
       </c>
     </row>
@@ -1665,26 +7637,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
     <col min="9" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1695,8 +7667,8 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
+      <c r="E1" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1713,212 +7685,212 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17">
-        <v>1973377</v>
-      </c>
-      <c r="D2" s="18">
+      <c r="C2" s="13">
+        <v>1973.377</v>
+      </c>
+      <c r="D2" s="14">
         <f>C2/C12</f>
         <v>0.62439332618460985</v>
       </c>
-      <c r="E2" s="17">
-        <v>14757127</v>
-      </c>
-      <c r="F2" s="18">
+      <c r="E2" s="13">
+        <v>14757.127</v>
+      </c>
+      <c r="F2" s="14">
         <f>E2/E12</f>
         <v>0.48304988071484223</v>
       </c>
-      <c r="G2" s="19">
-        <v>12914799</v>
-      </c>
-      <c r="H2" s="18">
+      <c r="G2" s="15">
+        <v>12914.799000000001</v>
+      </c>
+      <c r="H2" s="14">
         <f>G2/G12</f>
         <v>0.37516936262657152</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="13">
         <f>SUM(C2,E2,G2)</f>
-        <v>29645303</v>
+        <v>29645.303</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="17"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="13">
         <v>0</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <f>C4/C12</f>
         <v>0</v>
       </c>
-      <c r="E4" s="17">
-        <v>919308</v>
-      </c>
-      <c r="F4" s="18">
+      <c r="E4" s="13">
+        <v>919.30799999999999</v>
+      </c>
+      <c r="F4" s="14">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="G4" s="19">
-        <v>3145630</v>
-      </c>
-      <c r="H4" s="18">
+      <c r="G4" s="15">
+        <v>3145.63</v>
+      </c>
+      <c r="H4" s="14">
         <f>G4/G12</f>
         <v>9.1379200106716504E-2</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="13">
         <f>SUM(C4,E4,G4)</f>
-        <v>4064938</v>
+        <v>4064.9380000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="17"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="13">
         <v>0</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <f>C6/C12</f>
         <v>0</v>
       </c>
-      <c r="E6" s="17">
-        <v>86453</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="E6" s="13">
+        <v>86.453000000000003</v>
+      </c>
+      <c r="F6" s="14">
         <f>E6/E12</f>
         <v>2.8298944189773696E-3</v>
       </c>
-      <c r="G6" s="19">
-        <v>565362</v>
-      </c>
-      <c r="H6" s="18">
+      <c r="G6" s="15">
+        <v>565.36199999999997</v>
+      </c>
+      <c r="H6" s="14">
         <f>G6/G12</f>
-        <v>1.6423523214978704E-2</v>
-      </c>
-      <c r="I6" s="17">
+        <v>1.64235232149787E-2</v>
+      </c>
+      <c r="I6" s="13">
         <f>SUM(C6,E6,G6)</f>
-        <v>651815</v>
+        <v>651.81499999999994</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="17">
-        <v>1187094</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="C8" s="13">
+        <v>1187.0940000000001</v>
+      </c>
+      <c r="D8" s="14">
         <f>C8/C12</f>
         <v>0.3756066738153902</v>
       </c>
-      <c r="E8" s="17">
-        <v>14569684</v>
-      </c>
-      <c r="F8" s="18">
+      <c r="E8" s="13">
+        <v>14569.683999999999</v>
+      </c>
+      <c r="F8" s="14">
         <f>E8/E12</f>
         <v>0.47691424748549938</v>
       </c>
-      <c r="G8" s="19">
-        <v>17798126</v>
-      </c>
-      <c r="H8" s="18">
+      <c r="G8" s="15">
+        <v>17798.126</v>
+      </c>
+      <c r="H8" s="14">
         <f>G8/G12</f>
         <v>0.51702791405173332</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="13">
         <f>SUM(C8,E8,G8)</f>
-        <v>33554904</v>
+        <v>33554.903999999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
         <v>0</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <f>C10/C12</f>
         <v>0</v>
       </c>
-      <c r="E10" s="17">
-        <v>217331</v>
-      </c>
-      <c r="F10" s="18">
+      <c r="E10" s="13">
+        <v>217.33099999999999</v>
+      </c>
+      <c r="F10" s="14">
         <f>E10/E12</f>
         <v>7.1139669412370963E-3</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="15">
         <v>0</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="14">
         <f>G10/G12</f>
         <v>0</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="13">
         <f>SUM(C10,E10,G10)</f>
-        <v>217331</v>
+        <v>217.33099999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="17"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1927,55 +7899,142 @@
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
         <f>SUM(C2,C4,C6,C8,C10)</f>
-        <v>3160471</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17">
+        <v>3160.471</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
         <f>SUM(E2,E4,E6,E8,E10)</f>
-        <v>30549903</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="19">
+        <v>30549.902999999998</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15">
         <f>SUM(G2,G4,G6,G8,G10)</f>
-        <v>34423917</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="17">
+        <v>34423.917000000001</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="13">
         <f>SUM(C12,E12,G12)</f>
-        <v>68134291</v>
+        <v>68134.290999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="36">
+        <v>0.62439999999999996</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0</v>
+      </c>
+      <c r="D17" s="36">
+        <v>0</v>
+      </c>
+      <c r="E17" s="36">
+        <v>0.37559999999999999</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="36">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C18" s="36">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="D18" s="36">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E18" s="36">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="36">
+        <v>0.37519999999999998</v>
+      </c>
+      <c r="C19" s="36">
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="D19" s="36">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="F19" s="36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2005,243 +8064,289 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1069.1199999999999</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="19">
+        <v>8334.35</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18">
+        <v>10573.56</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="26">
-        <v>1069.1199999999999</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="26">
-        <v>8334.35</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22">
-        <v>10573.56</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19">
+        <v>4188.18</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="19">
+        <v>36006.32</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18">
+        <v>27518.89</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="26">
-        <v>4188.18</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="26">
-        <v>36006.32</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22">
-        <v>27518.89</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1744.03</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="19">
+        <v>6843.23</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18">
+        <v>7697.01</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="26">
+        <f>SUM(C2,C3,C4)</f>
+        <v>7001.33</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="26">
+        <f>SUM(E2,E3,E4)</f>
+        <v>51183.899999999994</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28">
+        <f>SUM(G2,G3,G4)</f>
+        <v>45789.46</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28">
+        <f>SUM(C5,E5,G5)</f>
+        <v>103974.69</v>
+      </c>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26">
-        <v>1744.03</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="26">
-        <v>6843.23</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22">
-        <v>7697.01</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19">
+        <v>113.2</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="19">
+        <v>3861.44</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18">
+        <v>626.66999999999996</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2088.3200000000002</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="19">
+        <v>9777.8799999999992</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18">
+        <v>13167.24</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="31">
+        <f>SUM(C6,C7)</f>
+        <v>2201.52</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="31">
+        <f>SUM(E6,E7)</f>
+        <v>13639.32</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33">
+        <f>SUM(G6,G7)</f>
+        <v>13793.91</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33">
+        <f>SUM(C8,E8,G8)</f>
+        <v>29634.75</v>
+      </c>
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1456.85</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="19">
+        <v>1660.75</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18">
+        <v>2834.97</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19">
+        <v>3507.11</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="19">
+        <v>4543.76</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18">
+        <v>7539.32</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="26">
-        <v>113.2</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="26">
-        <v>3861.44</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22">
-        <v>626.66999999999996</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="26">
-        <v>2088.3200000000002</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="26">
-        <v>9777.8799999999992</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22">
-        <v>13167.24</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="26">
-        <v>1456.85</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="26">
-        <v>1660.75</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22">
-        <v>2834.97</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="26">
-        <v>3507.11</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="26">
-        <v>4543.76</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22">
-        <v>7539.32</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="33">
+        <f>SUM(C9,C10)</f>
+        <v>4963.96</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33">
+        <f>SUM(E9,E10)</f>
+        <v>6204.51</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33">
+        <f>SUM(G9,G10)</f>
+        <v>10374.289999999999</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33">
+        <f>SUM(C11,E11,G11)</f>
+        <v>21542.760000000002</v>
+      </c>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="14"/>
+      <c r="B12" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="33">
+        <f>SUM(C5,C8,C11)</f>
+        <v>14166.810000000001</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33">
+        <f>SUM(E5,E8,E11)</f>
+        <v>71027.73</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33">
+        <f>SUM(G5,G8,G11)</f>
+        <v>69957.659999999989</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33">
+        <f>SUM(I5,I8,I11)</f>
+        <v>155152.20000000001</v>
+      </c>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="A13" s="12"/>
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="14"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="12"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="12"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>28</v>
+      <c r="A17" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -2272,112 +8377,1292 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7001.33</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="1">
+        <v>51183.9</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="1">
+        <v>45789.46</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="1">
+        <f>SUM(C18,E18,G18)</f>
+        <v>103974.69</v>
+      </c>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2201.52</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="1">
+        <v>13639.32</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="1">
+        <v>13793.91</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="1">
+        <f>SUM(C19,E19,G19)</f>
+        <v>29634.75</v>
+      </c>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4963.96</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="1">
+        <v>6204.51</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="1">
+        <v>10374.290000000001</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="1">
+        <f>SUM(C20,E20,G20)</f>
+        <v>21542.760000000002</v>
+      </c>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <f>SUM(C18,C19,C20)</f>
+        <v>14166.810000000001</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="1">
+        <f>SUM(E18,E19,E20)</f>
+        <v>71027.73</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="1">
+        <f>SUM(G18,G19,G20)</f>
+        <v>69957.66</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="1">
+        <f>SUM(I18,I19,I20)</f>
+        <v>155152.20000000001</v>
+      </c>
+      <c r="J21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>199.25700000000001</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1334.258</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="18">
+        <v>5062.585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18">
+        <v>975.47799999999995</v>
+      </c>
+      <c r="E3" s="19">
+        <v>15040.421</v>
+      </c>
+      <c r="G3" s="18">
+        <v>9652.8529999999992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1264.085</v>
+      </c>
+      <c r="E4" s="19">
+        <v>4055.1959999999999</v>
+      </c>
+      <c r="G4" s="18">
+        <v>2233.518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="33">
+        <f>SUM(C2,C3,C4)</f>
+        <v>2438.8199999999997</v>
+      </c>
+      <c r="E5" s="31">
+        <f>SUM(E2,E3,E4)</f>
+        <v>20429.875</v>
+      </c>
+      <c r="G5" s="33">
+        <f>SUM(G2,G3,G4)</f>
+        <v>16948.955999999998</v>
+      </c>
+      <c r="I5" s="33">
+        <f>SUM(C5,E5,G5)</f>
+        <v>39817.650999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>724.95699999999999</v>
+      </c>
+      <c r="G6" s="18">
+        <v>2393.8200000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>3520.2020000000002</v>
+      </c>
+      <c r="G7" s="18">
+        <v>6553.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="33">
+        <f>SUM(C6,C7)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="31">
+        <f>SUM(E6,E7)</f>
+        <v>4245.1590000000006</v>
+      </c>
+      <c r="G8" s="33">
+        <f>SUM(G6,G7)</f>
+        <v>8947.18</v>
+      </c>
+      <c r="I8" s="33">
+        <f>SUM(C8,E8,G8)</f>
+        <v>13192.339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1330.011</v>
+      </c>
+      <c r="G9" s="18">
+        <v>129.857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18">
+        <v>721.65099999999995</v>
+      </c>
+      <c r="E10" s="19">
+        <v>4544.8580000000002</v>
+      </c>
+      <c r="G10" s="18">
+        <v>8397.9240000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="33">
+        <f>SUM(C9,C10)</f>
+        <v>721.65099999999995</v>
+      </c>
+      <c r="E11" s="31">
+        <f>SUM(E9,E10)</f>
+        <v>5874.8690000000006</v>
+      </c>
+      <c r="G11" s="33">
+        <f>SUM(G9,G10)</f>
+        <v>8527.7810000000009</v>
+      </c>
+      <c r="I11" s="33">
+        <f>SUM(C11,E11,G11)</f>
+        <v>15124.301000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="33">
+        <f>SUM(C5,C8,C11)</f>
+        <v>3160.4709999999995</v>
+      </c>
+      <c r="E12" s="31">
+        <f>SUM(E5,E8,E11)</f>
+        <v>30549.902999999998</v>
+      </c>
+      <c r="G12" s="33">
+        <f>SUM(G5,G8,G11)</f>
+        <v>34423.917000000001</v>
+      </c>
+      <c r="I12" s="33">
+        <f>SUM(I5,I8,I11)</f>
+        <v>68134.290999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2438.8200000000002</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="1">
+        <v>20429.88</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="1">
+        <v>16948.96</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="1">
+        <v>4245.16</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="1">
+        <v>8947.18</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>18233.59</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0.48</v>
-      </c>
+        <v>721.65</v>
+      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="1">
-        <v>223573.49</v>
-      </c>
-      <c r="F18" s="14">
-        <v>0.74</v>
-      </c>
+        <v>5874.87</v>
+      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="1">
-        <v>566665.43000000005</v>
-      </c>
-      <c r="H18" s="14">
-        <v>0.59</v>
-      </c>
-      <c r="I18" s="1">
-        <v>808472.51</v>
-      </c>
-      <c r="J18" s="14">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>39</v>
+        <v>8527.7800000000007</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>19975.09</v>
-      </c>
-      <c r="D19" s="14">
-        <v>0.52</v>
-      </c>
+        <v>3160.47</v>
+      </c>
+      <c r="D19" s="11"/>
       <c r="E19" s="1">
-        <v>76673.87</v>
-      </c>
-      <c r="F19" s="14">
+        <v>30549.9</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="1">
+        <v>34423.919999999998</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2438.8200000000002</v>
+      </c>
+      <c r="D2" s="11">
+        <f>C2/C4</f>
+        <v>0.25834547120543638</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20429.88</v>
+      </c>
+      <c r="F2" s="11">
+        <f>E2/E4</f>
+        <v>0.285278615372628</v>
+      </c>
+      <c r="G2" s="1">
+        <v>16948.96</v>
+      </c>
+      <c r="H2" s="11">
+        <f>G2/G4</f>
+        <v>0.27015280270048242</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(C2,E2,G2)</f>
+        <v>39817.660000000003</v>
+      </c>
+      <c r="J2" s="11">
+        <f>I2/I4</f>
+        <v>0.27691083705078889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7001.33</v>
+      </c>
+      <c r="D3" s="11">
+        <f>C3/C4</f>
+        <v>0.74165452879456362</v>
+      </c>
+      <c r="E3" s="1">
+        <v>51183.9</v>
+      </c>
+      <c r="F3" s="11">
+        <f>E3/E4</f>
+        <v>0.714721384627372</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45789.46</v>
+      </c>
+      <c r="H3" s="11">
+        <f>G3/G4</f>
+        <v>0.72984719729951764</v>
+      </c>
+      <c r="I3" s="1">
+        <f>SUM(C3,E3,G3)</f>
+        <v>103974.69</v>
+      </c>
+      <c r="J3" s="11">
+        <f>I3/I4</f>
+        <v>0.72308916294921111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="33">
+        <f>SUM(C2,C3)</f>
+        <v>9440.15</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33">
+        <f>SUM(E2,E3)</f>
+        <v>71613.78</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33">
+        <f>SUM(G2,G3)</f>
+        <v>62738.42</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33">
+        <f>SUM(I2,I3)</f>
+        <v>143792.35</v>
+      </c>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <f>C5/C7</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4245.16</v>
+      </c>
+      <c r="F5" s="11">
+        <f>E5/E7</f>
+        <v>0.23736558177816744</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8947.18</v>
+      </c>
+      <c r="H5" s="11">
+        <f>G5/G7</f>
+        <v>0.39343672620793463</v>
+      </c>
+      <c r="I5" s="1">
+        <f>SUM(C5,E5,G5)</f>
+        <v>13192.34</v>
+      </c>
+      <c r="J5" s="11">
+        <f>I5/I7</f>
+        <v>0.30803727267017211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2201.52</v>
+      </c>
+      <c r="D6" s="11">
+        <f>C6/C7</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13639.32</v>
+      </c>
+      <c r="F6" s="11">
+        <f>E6/E7</f>
+        <v>0.76263441822183253</v>
+      </c>
+      <c r="G6" s="1">
+        <v>13793.91</v>
+      </c>
+      <c r="H6" s="11">
+        <f>G6/G7</f>
+        <v>0.60656327379206532</v>
+      </c>
+      <c r="I6" s="1">
+        <f>SUM(C6,E6,G6)</f>
+        <v>29634.75</v>
+      </c>
+      <c r="J6" s="11">
+        <f>I6/I7</f>
+        <v>0.691962727329828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="33">
+        <f>SUM(C5,C6)</f>
+        <v>2201.52</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33">
+        <f>SUM(E5,E6)</f>
+        <v>17884.48</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33">
+        <f>SUM(G5,G6)</f>
+        <v>22741.09</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33">
+        <f>SUM(I5,I6)</f>
+        <v>42827.09</v>
+      </c>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>721.65</v>
+      </c>
+      <c r="D8" s="11">
+        <f>C8/C10</f>
+        <v>0.12692569486827271</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5874.87</v>
+      </c>
+      <c r="F8" s="11">
+        <f>E8/E10</f>
+        <v>0.48635525995539503</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8527.7800000000007</v>
+      </c>
+      <c r="H8" s="11">
+        <f>G8/G10</f>
+        <v>0.45115587869476731</v>
+      </c>
+      <c r="I8" s="1">
+        <f>SUM(C8,E8,G8)</f>
+        <v>15124.3</v>
+      </c>
+      <c r="J8" s="11">
+        <f>I8/I10</f>
+        <v>0.41247648434316797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4963.96</v>
+      </c>
+      <c r="D9" s="11">
+        <f>C9/C10</f>
+        <v>0.87307430513172735</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6204.51</v>
+      </c>
+      <c r="F9" s="11">
+        <f>E9/E10</f>
+        <v>0.51364474004460492</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10374.290000000001</v>
+      </c>
+      <c r="H9" s="11">
+        <f>G9/G10</f>
+        <v>0.54884412130523275</v>
+      </c>
+      <c r="I9" s="1">
+        <f>SUM(C9,E9,G9)</f>
+        <v>21542.760000000002</v>
+      </c>
+      <c r="J9" s="11">
+        <f>I9/I10</f>
+        <v>0.58752351565683214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="33">
+        <f>SUM(C8,C9)</f>
+        <v>5685.61</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33">
+        <f>SUM(E8,E9)</f>
+        <v>12079.380000000001</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33">
+        <f>SUM(G8,G9)</f>
+        <v>18902.07</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33">
+        <f>SUM(I8,I9)</f>
+        <v>36667.06</v>
+      </c>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3160.47</v>
+      </c>
+      <c r="D11" s="11">
+        <f>C11/C13</f>
+        <v>0.18239850686316605</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30549.9</v>
+      </c>
+      <c r="F11" s="11">
+        <f>E11/E13</f>
+        <v>0.30075421133570451</v>
+      </c>
+      <c r="G11" s="1">
+        <v>34423.919999999998</v>
+      </c>
+      <c r="H11" s="11">
+        <f>G11/G13</f>
+        <v>0.32978922143159739</v>
+      </c>
+      <c r="I11" s="1">
+        <f>SUM(C11,E11,G11)</f>
+        <v>68134.290000000008</v>
+      </c>
+      <c r="J11" s="11">
+        <f>I11/I13</f>
+        <v>0.30514291303517738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>14166.81</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12/C13</f>
+        <v>0.81760149313683395</v>
+      </c>
+      <c r="E12" s="1">
+        <v>71027.73</v>
+      </c>
+      <c r="F12" s="3">
+        <f>E12/E13</f>
+        <v>0.69924578866429543</v>
+      </c>
+      <c r="G12" s="1">
+        <v>69957.66</v>
+      </c>
+      <c r="H12" s="3">
+        <f>G12/G13</f>
+        <v>0.67021077856840261</v>
+      </c>
+      <c r="I12" s="1">
+        <f>SUM(C12,E12,G12)</f>
+        <v>155152.20000000001</v>
+      </c>
+      <c r="J12" s="3">
+        <f>I12/I13</f>
+        <v>0.69485708696482262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="33">
+        <f>SUM(C11,C12)</f>
+        <v>17327.28</v>
+      </c>
+      <c r="E13" s="33">
+        <f>SUM(E11,E12)</f>
+        <v>101577.63</v>
+      </c>
+      <c r="G13" s="33">
+        <f>SUM(G11,G12)</f>
+        <v>104381.58</v>
+      </c>
+      <c r="I13" s="33">
+        <f>SUM(I11,I12)</f>
+        <v>223286.49000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2438.8200000000002</v>
+      </c>
+      <c r="D2" s="11">
         <v>0.26</v>
       </c>
-      <c r="G19" s="1">
-        <v>391560.03</v>
-      </c>
-      <c r="H19" s="14">
+      <c r="E2" s="1">
+        <v>20429.88</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>16948.96</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="I2" s="1">
+        <v>39817.660000000003</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7001.33</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="E3" s="1">
+        <v>51183.9</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45789.46</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="I3" s="1">
+        <v>103974.69</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4245.16</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8947.18</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="I4" s="1">
+        <v>13192.34</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2201.52</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13639.32</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="G5" s="1">
+        <v>13793.91</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="I5" s="1">
+        <v>29634.75</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>721.65</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5874.87</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8527.7800000000007</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="I6" s="1">
+        <v>15124.3</v>
+      </c>
+      <c r="J6" s="11">
         <v>0.41</v>
       </c>
-      <c r="I19" s="1">
-        <v>488208.99</v>
-      </c>
-      <c r="J19" s="14">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4963.96</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6204.51</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10374.290000000001</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I7" s="1">
+        <v>21542.76</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="1">
-        <v>38208.68</v>
-      </c>
-      <c r="D21" s="14">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>300247.36</v>
-      </c>
-      <c r="F21" s="14">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>958225.46</v>
-      </c>
-      <c r="H21" s="14">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1296681.5</v>
-      </c>
-      <c r="J21" s="14">
-        <v>1</v>
+      <c r="C8" s="1">
+        <v>3160.47</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="E8" s="1">
+        <v>30549.9</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>34423.919999999998</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="I8" s="1">
+        <v>68134.289999999994</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14166.81</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="E9" s="1">
+        <v>71027.73</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>69957.66</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="I9" s="1">
+        <v>155152.20000000001</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.69</v>
       </c>
     </row>
   </sheetData>

--- a/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
+++ b/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Total Trab. Melhor ID " sheetId="1" r:id="rId1"/>
-    <sheet name="Calculo Tipo de Area" sheetId="2" r:id="rId2"/>
+    <sheet name="Cálculo Tipo de Area" sheetId="2" r:id="rId2"/>
     <sheet name="Tab. e Graf. Tipo de Area" sheetId="6" r:id="rId3"/>
     <sheet name="Média de Renda" sheetId="3" r:id="rId4"/>
     <sheet name="Tabela e Grafico Total Raça" sheetId="4" r:id="rId5"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="71">
   <si>
     <t>Sexo</t>
   </si>
@@ -251,6 +251,9 @@
   <si>
     <t>Ocupação de Mulheres (Melhor idade) por tipo de área</t>
   </si>
+  <si>
+    <t>Trabalhadoras por Contra Própria</t>
+  </si>
 </sst>
 </file>
 
@@ -349,18 +352,6 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -380,10 +371,22 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,38 +419,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -584,11 +556,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="974542544"/>
-        <c:axId val="974534928"/>
+        <c:axId val="-64667360"/>
+        <c:axId val="-64672256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="974542544"/>
+        <c:axId val="-64667360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,7 +603,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="974534928"/>
+        <c:crossAx val="-64672256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -639,7 +611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="974534928"/>
+        <c:axId val="-64672256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +662,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="974542544"/>
+        <c:crossAx val="-64667360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -785,38 +757,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1151,11 +1092,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="974539824"/>
-        <c:axId val="974544720"/>
+        <c:axId val="-64671712"/>
+        <c:axId val="-64671168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="974539824"/>
+        <c:axId val="-64671712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,7 +1139,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="974544720"/>
+        <c:crossAx val="-64671168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1206,7 +1147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="974544720"/>
+        <c:axId val="-64671168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1198,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="974539824"/>
+        <c:crossAx val="-64671712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1613,38 +1554,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1660,7 +1570,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Empregadores</c:v>
+                  <c:v>Empregadoras</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1736,7 +1646,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trabalhadores por Contra Própria</c:v>
+                  <c:v>Trabalhadoras por Contra Própria</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1812,7 +1722,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Empregados</c:v>
+                  <c:v>Empregadas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1889,11 +1799,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="974530032"/>
-        <c:axId val="974536560"/>
+        <c:axId val="-64669536"/>
+        <c:axId val="-64662464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="974530032"/>
+        <c:axId val="-64669536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,7 +1846,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="974536560"/>
+        <c:crossAx val="-64662464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1944,7 +1854,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="974536560"/>
+        <c:axId val="-64662464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1995,7 +1905,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="974530032"/>
+        <c:crossAx val="-64669536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2090,38 +2000,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2438,11 +2317,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="974532752"/>
-        <c:axId val="974534384"/>
+        <c:axId val="-64670624"/>
+        <c:axId val="-64670080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="974532752"/>
+        <c:axId val="-64670624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2485,7 +2364,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="974534384"/>
+        <c:crossAx val="-64670080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2493,7 +2372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="974534384"/>
+        <c:axId val="-64670080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2544,7 +2423,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="974532752"/>
+        <c:crossAx val="-64670624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5492,14 +5371,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -5788,8 +5667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5970,8 +5849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:I33"/>
+    <sheetView topLeftCell="E19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6016,7 +5895,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -6053,7 +5932,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="34"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -6113,7 +5992,7 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -6150,7 +6029,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="35"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -6210,7 +6089,7 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
@@ -6247,7 +6126,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="35"/>
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -6307,7 +6186,7 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -6344,7 +6223,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="35"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -6404,7 +6283,7 @@
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -6444,7 +6323,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="36"/>
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -6667,7 +6546,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
@@ -6838,8 +6717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6891,7 +6770,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -6923,7 +6802,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="36"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -6953,7 +6832,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -6985,7 +6864,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="38"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -7015,7 +6894,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -7047,7 +6926,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="38"/>
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -7077,7 +6956,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
@@ -7109,7 +6988,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="38"/>
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -7139,7 +7018,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
@@ -7171,7 +7050,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="38"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -7437,9 +7316,9 @@
       <c r="A72" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
     </row>
     <row r="73" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -7449,17 +7328,17 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="38" t="s">
+      <c r="A74" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B74" t="s">
@@ -7640,7 +7519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -7654,7 +7533,7 @@
     <col min="9" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -7949,19 +7828,19 @@
       <c r="A17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="32">
         <v>0.62439999999999996</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="32">
         <v>0</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="32">
         <v>0</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="32">
         <v>0.37559999999999999</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="32">
         <v>0</v>
       </c>
     </row>
@@ -7969,19 +7848,19 @@
       <c r="A18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="32">
         <v>0.48299999999999998</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="32">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="32">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="32">
         <v>0.47689999999999999</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="32">
         <v>0.71</v>
       </c>
     </row>
@@ -7989,19 +7868,19 @@
       <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="32">
         <v>0.37519999999999998</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="32">
         <v>9.1399999999999995E-2</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="32">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="32">
         <v>0.51700000000000002</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="32">
         <v>0</v>
       </c>
     </row>
@@ -8016,7 +7895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
+    <sheetView topLeftCell="F13" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:J21"/>
     </sheetView>
   </sheetViews>
@@ -8130,30 +8009,30 @@
       <c r="I4" s="18"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:10" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <f>SUM(C2,C3,C4)</f>
         <v>7001.33</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="26">
+      <c r="D5" s="23"/>
+      <c r="E5" s="22">
         <f>SUM(E2,E3,E4)</f>
         <v>51183.899999999994</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28">
+      <c r="F5" s="23"/>
+      <c r="G5" s="24">
         <f>SUM(G2,G3,G4)</f>
         <v>45789.46</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28">
+      <c r="H5" s="23"/>
+      <c r="I5" s="24">
         <f>SUM(C5,E5,G5)</f>
         <v>103974.69</v>
       </c>
-      <c r="J5" s="27"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
@@ -8199,33 +8078,33 @@
       <c r="I7" s="18"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="27">
         <f>SUM(C6,C7)</f>
         <v>2201.52</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="31">
+      <c r="D8" s="28"/>
+      <c r="E8" s="27">
         <f>SUM(E6,E7)</f>
         <v>13639.32</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33">
+      <c r="F8" s="28"/>
+      <c r="G8" s="29">
         <f>SUM(G6,G7)</f>
         <v>13793.91</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33">
+      <c r="H8" s="28"/>
+      <c r="I8" s="29">
         <f>SUM(C8,E8,G8)</f>
         <v>29634.75</v>
       </c>
-      <c r="J8" s="32"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
@@ -8271,61 +8150,61 @@
       <c r="I10" s="18"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="29">
         <f>SUM(C9,C10)</f>
         <v>4963.96</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33">
+      <c r="D11" s="28"/>
+      <c r="E11" s="29">
         <f>SUM(E9,E10)</f>
         <v>6204.51</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33">
+      <c r="F11" s="28"/>
+      <c r="G11" s="29">
         <f>SUM(G9,G10)</f>
         <v>10374.289999999999</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33">
+      <c r="H11" s="28"/>
+      <c r="I11" s="29">
         <f>SUM(C11,E11,G11)</f>
         <v>21542.760000000002</v>
       </c>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="29">
         <f>SUM(C5,C8,C11)</f>
         <v>14166.810000000001</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33">
+      <c r="D12" s="28"/>
+      <c r="E12" s="29">
         <f>SUM(E5,E8,E11)</f>
         <v>71027.73</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33">
+      <c r="F12" s="28"/>
+      <c r="G12" s="29">
         <f>SUM(G5,G8,G11)</f>
         <v>69957.659999999989</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33">
+      <c r="H12" s="28"/>
+      <c r="I12" s="29">
         <f>SUM(I5,I8,I11)</f>
         <v>155152.20000000001</v>
       </c>
-      <c r="J12" s="32"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
@@ -8546,7 +8425,7 @@
       <c r="E2" s="19">
         <v>1334.258</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="18">
         <v>5062.585</v>
       </c>
@@ -8585,26 +8464,26 @@
         <v>2233.518</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="29">
         <f>SUM(C2,C3,C4)</f>
         <v>2438.8199999999997</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="27">
         <f>SUM(E2,E3,E4)</f>
         <v>20429.875</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="29">
         <f>SUM(G2,G3,G4)</f>
         <v>16948.955999999998</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="29">
         <f>SUM(C5,E5,G5)</f>
         <v>39817.650999999998</v>
       </c>
@@ -8643,26 +8522,26 @@
         <v>6553.36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="29">
         <f>SUM(C6,C7)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="27">
         <f>SUM(E6,E7)</f>
         <v>4245.1590000000006</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="29">
         <f>SUM(G6,G7)</f>
         <v>8947.18</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="29">
         <f>SUM(C8,E8,G8)</f>
         <v>13192.339</v>
       </c>
@@ -8701,50 +8580,50 @@
         <v>8397.9240000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="29">
         <f>SUM(C9,C10)</f>
         <v>721.65099999999995</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="27">
         <f>SUM(E9,E10)</f>
         <v>5874.8690000000006</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="29">
         <f>SUM(G9,G10)</f>
         <v>8527.7810000000009</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="29">
         <f>SUM(C11,E11,G11)</f>
         <v>15124.301000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="29">
         <f>SUM(C5,C8,C11)</f>
         <v>3160.4709999999995</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="27">
         <f>SUM(E5,E8,E11)</f>
         <v>30549.902999999998</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="29">
         <f>SUM(G5,G8,G11)</f>
         <v>34423.917000000001</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="29">
         <f>SUM(I5,I8,I11)</f>
         <v>68134.290999999997</v>
       </c>
@@ -8878,7 +8757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -8925,7 +8804,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="38" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
@@ -8962,7 +8841,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="38"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -8996,33 +8875,33 @@
         <v>0.72308916294921111</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="29">
         <f>SUM(C2,C3)</f>
         <v>9440.15</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33">
+      <c r="D4" s="28"/>
+      <c r="E4" s="29">
         <f>SUM(E2,E3)</f>
         <v>71613.78</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33">
+      <c r="F4" s="28"/>
+      <c r="G4" s="29">
         <f>SUM(G2,G3)</f>
         <v>62738.42</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33">
+      <c r="H4" s="28"/>
+      <c r="I4" s="29">
         <f>SUM(I2,I3)</f>
         <v>143792.35</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="38" t="s">
         <v>38</v>
       </c>
       <c r="B5" t="s">
@@ -9059,7 +8938,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="38"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -9093,33 +8972,33 @@
         <v>0.691962727329828</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="29">
         <f>SUM(C5,C6)</f>
         <v>2201.52</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33">
+      <c r="D7" s="28"/>
+      <c r="E7" s="29">
         <f>SUM(E5,E6)</f>
         <v>17884.48</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33">
+      <c r="F7" s="28"/>
+      <c r="G7" s="29">
         <f>SUM(G5,G6)</f>
         <v>22741.09</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33">
+      <c r="H7" s="28"/>
+      <c r="I7" s="29">
         <f>SUM(I5,I6)</f>
         <v>42827.09</v>
       </c>
-      <c r="J7" s="32"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="38" t="s">
         <v>36</v>
       </c>
       <c r="B8" t="s">
@@ -9156,7 +9035,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="38"/>
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -9190,33 +9069,33 @@
         <v>0.58752351565683214</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="29">
         <f>SUM(C8,C9)</f>
         <v>5685.61</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33">
+      <c r="D10" s="28"/>
+      <c r="E10" s="29">
         <f>SUM(E8,E9)</f>
         <v>12079.380000000001</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33">
+      <c r="F10" s="28"/>
+      <c r="G10" s="29">
         <f>SUM(G8,G9)</f>
         <v>18902.07</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33">
+      <c r="H10" s="28"/>
+      <c r="I10" s="29">
         <f>SUM(I8,I9)</f>
         <v>36667.06</v>
       </c>
-      <c r="J10" s="32"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
@@ -9253,7 +9132,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -9287,20 +9166,20 @@
         <v>0.69485708696482262</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="33">
+    <row r="13" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="29">
         <f>SUM(C11,C12)</f>
         <v>17327.28</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="29">
         <f>SUM(E11,E12)</f>
         <v>101577.63</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="29">
         <f>SUM(G11,G12)</f>
         <v>104381.58</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="29">
         <f>SUM(I11,I12)</f>
         <v>223286.49000000002</v>
       </c>
@@ -9385,7 +9264,7 @@
     <col min="10" max="10" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>27</v>
       </c>

--- a/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
+++ b/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Total Trab. Melhor ID " sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Tab. e Graf. Tipo de Area" sheetId="6" r:id="rId3"/>
     <sheet name="Média de Renda" sheetId="3" r:id="rId4"/>
     <sheet name="Tabela e Grafico Total Raça" sheetId="4" r:id="rId5"/>
-    <sheet name="Calculo Escolaridade Ho" sheetId="5" r:id="rId6"/>
+    <sheet name="Calculo Escolaridade H" sheetId="5" r:id="rId6"/>
     <sheet name="Calculo Escolaridade M" sheetId="7" r:id="rId7"/>
     <sheet name="Calculo Escolaridade H e M" sheetId="9" r:id="rId8"/>
     <sheet name="Tabela Escolaridade" sheetId="10" r:id="rId9"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="76">
   <si>
     <t>Sexo</t>
   </si>
@@ -254,6 +254,21 @@
   <si>
     <t>Trabalhadoras por Contra Própria</t>
   </si>
+  <si>
+    <t>Tabela com as porcentagens para a geração dos gráficos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabela apenas com as empreendedoras por tipo de area </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabela com todas as ocupações das mulheres por tipo de area </t>
+  </si>
+  <si>
+    <t>Tabela geral de ocupação por tipo de area com ambos os sexos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabela para a geração do grafico (barras) </t>
+  </si>
 </sst>
 </file>
 
@@ -556,11 +571,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-64667360"/>
-        <c:axId val="-64672256"/>
+        <c:axId val="787782464"/>
+        <c:axId val="787783008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-64667360"/>
+        <c:axId val="787782464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +618,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-64672256"/>
+        <c:crossAx val="787783008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-64672256"/>
+        <c:axId val="787783008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +677,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-64667360"/>
+        <c:crossAx val="787782464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1092,11 +1107,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-64671712"/>
-        <c:axId val="-64671168"/>
+        <c:axId val="787777024"/>
+        <c:axId val="970522160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-64671712"/>
+        <c:axId val="787777024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,7 +1154,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-64671168"/>
+        <c:crossAx val="970522160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1147,7 +1162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-64671168"/>
+        <c:axId val="970522160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,7 +1213,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-64671712"/>
+        <c:crossAx val="787777024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1799,11 +1814,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-64669536"/>
-        <c:axId val="-64662464"/>
+        <c:axId val="970514000"/>
+        <c:axId val="970509104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-64669536"/>
+        <c:axId val="970514000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1846,7 +1861,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-64662464"/>
+        <c:crossAx val="970509104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1854,7 +1869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-64662464"/>
+        <c:axId val="970509104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,7 +1920,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-64669536"/>
+        <c:crossAx val="970514000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2317,11 +2332,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-64670624"/>
-        <c:axId val="-64670080"/>
+        <c:axId val="970511824"/>
+        <c:axId val="970516720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-64670624"/>
+        <c:axId val="970511824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,7 +2379,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-64670080"/>
+        <c:crossAx val="970516720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2372,7 +2387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-64670080"/>
+        <c:axId val="970516720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2438,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-64670624"/>
+        <c:crossAx val="970511824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5667,8 +5682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5800,6 +5815,14 @@
         <v>223286.40000000002</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
@@ -5840,17 +5863,21 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:D7"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="E19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="A25" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5863,573 +5890,567 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
-        <f>C2/C3</f>
+      <c r="D3" s="3">
+        <f>C3/C4</f>
         <v>0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E3" s="4">
         <v>14588.04</v>
       </c>
-      <c r="F2" s="3">
-        <f>E2/E4</f>
+      <c r="F3" s="3">
+        <f>E3/E5</f>
         <v>0.48552611609460744</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G3" s="4">
         <v>11464.59</v>
       </c>
-      <c r="H2" s="3">
-        <f>G2/G4</f>
+      <c r="H3" s="3">
+        <f>G3/G5</f>
         <v>0.42407100530431374</v>
-      </c>
-      <c r="I2" s="4">
-        <f>SUM(C2,E2,G2)</f>
-        <v>26052.63</v>
-      </c>
-      <c r="J2" s="3">
-        <f>I2/I4</f>
-        <v>0.4150399433627236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5690.94</v>
-      </c>
-      <c r="D3" s="3">
-        <f>C3/C3</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>15457.8</v>
-      </c>
-      <c r="F3" s="3">
-        <f>E3/E4</f>
-        <v>0.5144738839053925</v>
-      </c>
-      <c r="G3" s="4">
-        <v>15570.01</v>
-      </c>
-      <c r="H3" s="3">
-        <f>G3/G4</f>
-        <v>0.57592899469568626</v>
       </c>
       <c r="I3" s="4">
         <f>SUM(C3,E3,G3)</f>
+        <v>26052.63</v>
+      </c>
+      <c r="J3" s="3">
+        <f>I3/I5</f>
+        <v>0.4150399433627236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5690.94</v>
+      </c>
+      <c r="D4" s="3">
+        <f>C4/C4</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15457.8</v>
+      </c>
+      <c r="F4" s="3">
+        <f>E4/E5</f>
+        <v>0.5144738839053925</v>
+      </c>
+      <c r="G4" s="4">
+        <v>15570.01</v>
+      </c>
+      <c r="H4" s="3">
+        <f>G4/G5</f>
+        <v>0.57592899469568626</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUM(C4,E4,G4)</f>
         <v>36718.75</v>
       </c>
-      <c r="J3" s="3">
-        <f>I3/I4</f>
+      <c r="J4" s="3">
+        <f>I4/I5</f>
         <v>0.58496005663727635</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5">
-        <f>SUM(C2,C3)</f>
+      <c r="C5" s="5">
+        <f>SUM(C3,C4)</f>
         <v>5690.94</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="5">
-        <f>SUM(E2,E3)</f>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5">
+        <f>SUM(E3,E4)</f>
         <v>30045.84</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="5">
-        <f>SUM(G2,G3)</f>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5">
+        <f>SUM(G3,G4)</f>
         <v>27034.6</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="5">
-        <f>SUM(I2,I3)</f>
+      <c r="H5" s="8"/>
+      <c r="I5" s="5">
+        <f>SUM(I3,I4)</f>
         <v>62771.380000000005</v>
       </c>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="3">
-        <f>C5/C7</f>
+      <c r="D6" s="3">
+        <f>C6/C8</f>
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="4">
         <v>3424.54</v>
       </c>
-      <c r="F5" s="3">
-        <f>E5/E7</f>
+      <c r="F6" s="3">
+        <f>E6/E8</f>
         <v>0.28596862022691838</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G6" s="4">
         <v>2413.3000000000002</v>
       </c>
-      <c r="H5" s="3">
-        <f>G5/G7</f>
+      <c r="H6" s="3">
+        <f>G6/G8</f>
         <v>0.21071960575097839</v>
-      </c>
-      <c r="I5" s="4">
-        <f>SUM(C5,E5,G5)</f>
-        <v>5837.84</v>
-      </c>
-      <c r="J5" s="3">
-        <f>I5/I7</f>
-        <v>0.24135473255112083</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>759.91</v>
-      </c>
-      <c r="D6" s="3">
-        <f>C6/C7</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8550.69</v>
-      </c>
-      <c r="F6" s="3">
-        <f>E6/E7</f>
-        <v>0.71403137977308162</v>
-      </c>
-      <c r="G6" s="4">
-        <v>9039.36</v>
-      </c>
-      <c r="H6" s="3">
-        <f>G6/G7</f>
-        <v>0.78928039424902163</v>
       </c>
       <c r="I6" s="4">
         <f>SUM(C6,E6,G6)</f>
+        <v>5837.84</v>
+      </c>
+      <c r="J6" s="3">
+        <f>I6/I8</f>
+        <v>0.24135473255112083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>759.91</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7/C8</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8550.69</v>
+      </c>
+      <c r="F7" s="3">
+        <f>E7/E8</f>
+        <v>0.71403137977308162</v>
+      </c>
+      <c r="G7" s="4">
+        <v>9039.36</v>
+      </c>
+      <c r="H7" s="3">
+        <f>G7/G8</f>
+        <v>0.78928039424902163</v>
+      </c>
+      <c r="I7" s="4">
+        <f>SUM(C7,E7,G7)</f>
         <v>18349.96</v>
       </c>
-      <c r="J6" s="3">
-        <f>I6/I7</f>
+      <c r="J7" s="3">
+        <f>I7/I8</f>
         <v>0.75864526744887917</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
-        <f>SUM(C5,C6)</f>
+      <c r="C8" s="5">
+        <f>SUM(C6,C7)</f>
         <v>759.91</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5">
-        <f>SUM(E5,E6)</f>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5">
+        <f>SUM(E6,E7)</f>
         <v>11975.23</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="5">
-        <f>SUM(G5,G6)</f>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5">
+        <f>SUM(G6,G7)</f>
         <v>11452.66</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="5">
-        <f>SUM(I5,I6)</f>
+      <c r="H8" s="8"/>
+      <c r="I8" s="5">
+        <f>SUM(I6,I7)</f>
         <v>24187.8</v>
       </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>975.48</v>
       </c>
-      <c r="D8" s="3">
-        <f>C8/C10</f>
+      <c r="D9" s="3">
+        <f>C9/C11</f>
         <v>0.58096446247029598</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>2086.56</v>
       </c>
-      <c r="F8" s="3">
-        <f>E8/E10</f>
+      <c r="F9" s="3">
+        <f>E9/E11</f>
         <v>0.19710672835855864</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="4">
         <v>4655.91</v>
       </c>
-      <c r="H8" s="3">
-        <f>G8/G10</f>
+      <c r="H9" s="3">
+        <f>G9/G11</f>
         <v>0.33626220292111769</v>
-      </c>
-      <c r="I8" s="4">
-        <f>SUM(C8,E8,G8)</f>
-        <v>7717.95</v>
-      </c>
-      <c r="J8" s="3">
-        <f>I8/I10</f>
-        <v>0.29558141601189997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>703.59</v>
-      </c>
-      <c r="D9" s="3">
-        <f>C9/C10</f>
-        <v>0.41903553752970391</v>
-      </c>
-      <c r="E9" s="4">
-        <v>8499.3799999999992</v>
-      </c>
-      <c r="F9" s="3">
-        <f>E9/E10</f>
-        <v>0.80289327164144142</v>
-      </c>
-      <c r="G9" s="4">
-        <v>9190.16</v>
-      </c>
-      <c r="H9" s="3">
-        <f>G9/G10</f>
-        <v>0.66373779707888236</v>
       </c>
       <c r="I9" s="4">
         <f>SUM(C9,E9,G9)</f>
+        <v>7717.95</v>
+      </c>
+      <c r="J9" s="3">
+        <f>I9/I11</f>
+        <v>0.29558141601189997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>703.59</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10/C11</f>
+        <v>0.41903553752970391</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8499.3799999999992</v>
+      </c>
+      <c r="F10" s="3">
+        <f>E10/E11</f>
+        <v>0.80289327164144142</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9190.16</v>
+      </c>
+      <c r="H10" s="3">
+        <f>G10/G11</f>
+        <v>0.66373779707888236</v>
+      </c>
+      <c r="I10" s="4">
+        <f>SUM(C10,E10,G10)</f>
         <v>18393.129999999997</v>
       </c>
-      <c r="J9" s="3">
-        <f>I9/I10</f>
+      <c r="J10" s="3">
+        <f>I10/I11</f>
         <v>0.70441858398809998</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:10" s="6" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5">
-        <f>SUM(C8,C9)</f>
+      <c r="C11" s="5">
+        <f>SUM(C9,C10)</f>
         <v>1679.0700000000002</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="5">
-        <f>SUM(E8,E9)</f>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5">
+        <f>SUM(E9,E10)</f>
         <v>10585.939999999999</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5">
-        <f>SUM(G8,G9)</f>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5">
+        <f>SUM(G9,G10)</f>
         <v>13846.07</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="5">
-        <f>SUM(I8,I9)</f>
+      <c r="H11" s="8"/>
+      <c r="I11" s="5">
+        <f>SUM(I9,I10)</f>
         <v>26111.079999999998</v>
       </c>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C12" s="4">
         <v>2184.9899999999998</v>
       </c>
-      <c r="D11" s="3">
-        <f>C11/C13</f>
+      <c r="D12" s="3">
+        <f>C12/C14</f>
         <v>0.23756708446771679</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="4">
         <v>10450.77</v>
       </c>
-      <c r="F11" s="3">
-        <f>E11/E13</f>
+      <c r="F12" s="3">
+        <f>E12/E14</f>
         <v>0.21340889153174231</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="4">
         <v>15890.12</v>
       </c>
-      <c r="H11" s="3">
-        <f>G11/G13</f>
+      <c r="H12" s="3">
+        <f>G12/G14</f>
         <v>0.30529601000917611</v>
-      </c>
-      <c r="I11" s="4">
-        <f>SUM(C11,E11,G11)</f>
-        <v>28525.88</v>
-      </c>
-      <c r="J11" s="3">
-        <f>I11/I13</f>
-        <v>0.25881739387952263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>7012.37</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12/C13</f>
-        <v>0.7624329155322831</v>
-      </c>
-      <c r="E12" s="4">
-        <v>38519.870000000003</v>
-      </c>
-      <c r="F12" s="3">
-        <f>E12/E13</f>
-        <v>0.78659110846825775</v>
-      </c>
-      <c r="G12" s="4">
-        <v>36158.120000000003</v>
-      </c>
-      <c r="H12" s="3">
-        <f>G12/G13</f>
-        <v>0.69470398999082383</v>
       </c>
       <c r="I12" s="4">
         <f>SUM(C12,E12,G12)</f>
+        <v>28525.88</v>
+      </c>
+      <c r="J12" s="3">
+        <f>I12/I14</f>
+        <v>0.25881739387952263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7012.37</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13/C14</f>
+        <v>0.7624329155322831</v>
+      </c>
+      <c r="E13" s="4">
+        <v>38519.870000000003</v>
+      </c>
+      <c r="F13" s="3">
+        <f>E13/E14</f>
+        <v>0.78659110846825775</v>
+      </c>
+      <c r="G13" s="4">
+        <v>36158.120000000003</v>
+      </c>
+      <c r="H13" s="3">
+        <f>G13/G14</f>
+        <v>0.69470398999082383</v>
+      </c>
+      <c r="I13" s="4">
+        <f>SUM(C13,E13,G13)</f>
         <v>81690.360000000015</v>
       </c>
-      <c r="J12" s="3">
-        <f>I12/I13</f>
+      <c r="J13" s="3">
+        <f>I13/I14</f>
         <v>0.74118260612047737</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5">
-        <f>SUM(C11,C12)</f>
+      <c r="C14" s="5">
+        <f>SUM(C12,C13)</f>
         <v>9197.36</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5">
-        <f>SUM(E11,E12)</f>
+      <c r="D14" s="8"/>
+      <c r="E14" s="5">
+        <f>SUM(E12,E13)</f>
         <v>48970.64</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5">
-        <f>SUM(G11,G12)</f>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5">
+        <f>SUM(G12,G13)</f>
         <v>52048.240000000005</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="5">
-        <f>SUM(I11,I12)</f>
+      <c r="H14" s="8"/>
+      <c r="I14" s="5">
+        <f>SUM(I12,I13)</f>
         <v>110216.24000000002</v>
       </c>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>1</v>
-      </c>
-      <c r="C14" s="4">
-        <f>SUM(C2,C5,C8,C11)</f>
-        <v>3160.47</v>
-      </c>
-      <c r="D14" s="3">
-        <f>C14/C16</f>
-        <v>0.18239850686316605</v>
-      </c>
-      <c r="E14" s="4">
-        <f>SUM(E2,E5,E8,E11)</f>
-        <v>30549.910000000003</v>
-      </c>
-      <c r="F14" s="3">
-        <f>E14/E16</f>
-        <v>0.3007542505659464</v>
-      </c>
-      <c r="G14" s="4">
-        <f>SUM(G2,G5,G8,G11)</f>
-        <v>34423.919999999998</v>
-      </c>
-      <c r="H14" s="3">
-        <f>G14/G16</f>
-        <v>0.32978925302618078</v>
-      </c>
-      <c r="I14" s="4">
-        <f>SUM(C14,E14,G14)</f>
-        <v>68134.3</v>
-      </c>
-      <c r="J14" s="3">
-        <f>I14/I16</f>
-        <v>0.30514294415470711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" t="s">
-        <v>2</v>
       </c>
       <c r="C15" s="4">
         <f>SUM(C3,C6,C9,C12)</f>
-        <v>14166.81</v>
+        <v>3160.47</v>
       </c>
       <c r="D15" s="3">
-        <f>C15/C16</f>
-        <v>0.81760149313683395</v>
+        <f>C15/C17</f>
+        <v>0.18239850686316605</v>
       </c>
       <c r="E15" s="4">
         <f>SUM(E3,E6,E9,E12)</f>
-        <v>71027.739999999991</v>
+        <v>30549.910000000003</v>
       </c>
       <c r="F15" s="3">
-        <f>E15/E16</f>
-        <v>0.6992457494340536</v>
+        <f>E15/E17</f>
+        <v>0.3007542505659464</v>
       </c>
       <c r="G15" s="4">
         <f>SUM(G3,G6,G9,G12)</f>
-        <v>69957.649999999994</v>
+        <v>34423.919999999998</v>
       </c>
       <c r="H15" s="3">
-        <f>G15/G16</f>
-        <v>0.67021074697381922</v>
+        <f>G15/G17</f>
+        <v>0.32978925302618078</v>
       </c>
       <c r="I15" s="4">
         <f>SUM(C15,E15,G15)</f>
+        <v>68134.3</v>
+      </c>
+      <c r="J15" s="3">
+        <f>I15/I17</f>
+        <v>0.30514294415470711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUM(C4,C7,C10,C13)</f>
+        <v>14166.81</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16/C17</f>
+        <v>0.81760149313683395</v>
+      </c>
+      <c r="E16" s="4">
+        <f>SUM(E4,E7,E10,E13)</f>
+        <v>71027.739999999991</v>
+      </c>
+      <c r="F16" s="3">
+        <f>E16/E17</f>
+        <v>0.6992457494340536</v>
+      </c>
+      <c r="G16" s="4">
+        <f>SUM(G4,G7,G10,G13)</f>
+        <v>69957.649999999994</v>
+      </c>
+      <c r="H16" s="3">
+        <f>G16/G17</f>
+        <v>0.67021074697381922</v>
+      </c>
+      <c r="I16" s="4">
+        <f>SUM(C16,E16,G16)</f>
         <v>155152.19999999998</v>
       </c>
-      <c r="J15" s="3">
-        <f>I15/I16</f>
+      <c r="J16" s="3">
+        <f>I16/I17</f>
         <v>0.69485705584529289</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5">
-        <f>SUM(C14,C15)</f>
+      <c r="C17" s="5">
+        <f>SUM(C15,C16)</f>
         <v>17327.28</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="5">
-        <f>SUM(E14,E15)</f>
+      <c r="D17" s="8"/>
+      <c r="E17" s="5">
+        <f>SUM(E15,E16)</f>
         <v>101577.65</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5">
-        <f>SUM(G14,G15)</f>
+      <c r="F17" s="8"/>
+      <c r="G17" s="5">
+        <f>SUM(G15,G16)</f>
         <v>104381.56999999999</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="5">
-        <f>SUM(I14,I15)</f>
+      <c r="H17" s="8"/>
+      <c r="I17" s="5">
+        <f>SUM(I15,I16)</f>
         <v>223286.5</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
+      <c r="A20" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="1">
-        <v>14588</v>
-      </c>
-      <c r="E21" s="1">
-        <f>SUM(C21,D21)</f>
-        <v>14588</v>
-      </c>
-      <c r="F21" s="3">
-        <f>E21/E25</f>
-        <v>0.37261813537675609</v>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -6438,276 +6459,309 @@
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>3425</v>
+        <v>14588</v>
       </c>
       <c r="E22" s="1">
         <f>SUM(C22,D22)</f>
-        <v>3425</v>
+        <v>14588</v>
       </c>
       <c r="F22" s="3">
-        <f>E22/E25</f>
-        <v>8.7484035759897827E-2</v>
+        <f>E22/E26</f>
+        <v>0.37261813537675609</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>975</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>2087</v>
+        <v>3425</v>
       </c>
       <c r="E23" s="1">
         <f>SUM(C23,D23)</f>
-        <v>3062</v>
+        <v>3425</v>
       </c>
       <c r="F23" s="3">
-        <f>E23/E25</f>
-        <v>7.8212005108556831E-2</v>
+        <f>E23/E26</f>
+        <v>8.7484035759897827E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>2185</v>
+        <v>975</v>
       </c>
       <c r="D24" s="1">
-        <v>15890</v>
+        <v>2087</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(C24,D24)</f>
-        <v>18075</v>
+        <v>3062</v>
       </c>
       <c r="F24" s="3">
-        <f>E24/E25</f>
-        <v>0.46168582375478928</v>
+        <f>E24/E26</f>
+        <v>7.8212005108556831E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <f>SUM(C21,C22:C23,C24)</f>
-        <v>3160</v>
+        <v>2185</v>
       </c>
       <c r="D25" s="1">
-        <f>SUM(D21,D22,D23,D24)</f>
-        <v>35990</v>
+        <v>15890</v>
       </c>
       <c r="E25" s="1">
         <f>SUM(C25,D25)</f>
+        <v>18075</v>
+      </c>
+      <c r="F25" s="3">
+        <f>E25/E26</f>
+        <v>0.46168582375478928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <f>SUM(C22,C23:C24,C25)</f>
+        <v>3160</v>
+      </c>
+      <c r="D26" s="1">
+        <f>SUM(D22,D23,D24,D25)</f>
+        <v>35990</v>
+      </c>
+      <c r="E26" s="1">
+        <f>SUM(C26,D26)</f>
         <v>39150</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B33" t="s">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C33" t="s">
         <v>3</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D33" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F33" t="s">
         <v>5</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G33" t="s">
         <v>4</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H33" t="s">
         <v>5</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I33" t="s">
         <v>6</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B34" t="s">
         <v>1</v>
       </c>
-      <c r="C29">
+      <c r="C34">
         <v>0</v>
       </c>
-      <c r="D29" s="11">
-        <f>C29/I29</f>
+      <c r="D34" s="11">
+        <f>C34/I34</f>
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="E34">
         <v>14588</v>
       </c>
-      <c r="F29" s="11">
-        <f>E29/I29</f>
+      <c r="F34" s="11">
+        <f>E34/I34</f>
         <v>0.55993551606340919</v>
       </c>
-      <c r="G29">
+      <c r="G34">
         <v>11465</v>
       </c>
-      <c r="H29" s="11">
-        <f>G29/I29</f>
+      <c r="H34" s="11">
+        <f>G34/I34</f>
         <v>0.44006448393659081</v>
       </c>
-      <c r="I29">
+      <c r="I34">
         <v>26053</v>
       </c>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B35" t="s">
         <v>1</v>
       </c>
-      <c r="C30">
+      <c r="C35">
         <v>0</v>
       </c>
-      <c r="D30" s="11">
-        <f>C30/I30</f>
+      <c r="D35" s="11">
+        <f>C35/I35</f>
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="E35">
         <v>3425</v>
       </c>
-      <c r="F30" s="11">
-        <f>E30/I30</f>
+      <c r="F35" s="11">
+        <f>E35/I35</f>
         <v>0.58667351832819459</v>
       </c>
-      <c r="G30">
+      <c r="G35">
         <v>2413</v>
       </c>
-      <c r="H30" s="11">
-        <f>G30/I30</f>
+      <c r="H35" s="11">
+        <f>G35/I35</f>
         <v>0.41332648167180541</v>
       </c>
-      <c r="I30">
+      <c r="I35">
         <v>5838</v>
       </c>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="C31">
+      <c r="C36">
         <v>975</v>
       </c>
-      <c r="D31" s="11">
-        <f>C31/I31</f>
+      <c r="D36" s="11">
+        <f>C36/I36</f>
         <v>0.12632806426535373</v>
       </c>
-      <c r="E31">
+      <c r="E36">
         <v>2087</v>
       </c>
-      <c r="F31" s="11">
-        <f>E31/I31</f>
+      <c r="F36" s="11">
+        <f>E36/I36</f>
         <v>0.27040684115055713</v>
       </c>
-      <c r="G31">
+      <c r="G36">
         <v>4656</v>
       </c>
-      <c r="H31" s="11">
-        <f>G31/I31</f>
+      <c r="H36" s="11">
+        <f>G36/I36</f>
         <v>0.60326509458408917</v>
       </c>
-      <c r="I31">
+      <c r="I36">
         <v>7718</v>
       </c>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C37">
         <v>2185</v>
       </c>
-      <c r="D32" s="11">
-        <f>C32/I32</f>
+      <c r="D37" s="11">
+        <f>C37/I37</f>
         <v>7.6596788894342002E-2</v>
       </c>
-      <c r="E32">
+      <c r="E37">
         <v>10451</v>
       </c>
-      <c r="F32" s="11">
-        <f>E32/I32</f>
+      <c r="F37" s="11">
+        <f>E37/I37</f>
         <v>0.36636752436373832</v>
       </c>
-      <c r="G32">
+      <c r="G37">
         <v>15890</v>
       </c>
-      <c r="H32" s="11">
-        <f>G32/I32</f>
+      <c r="H37" s="11">
+        <f>G37/I37</f>
         <v>0.55703568674191961</v>
       </c>
-      <c r="I32">
+      <c r="I37">
         <v>28526</v>
       </c>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B38" t="s">
         <v>1</v>
       </c>
-      <c r="C33">
+      <c r="C38">
         <v>3160</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33">
+      <c r="D38" s="11"/>
+      <c r="E38">
         <v>30550</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33">
+      <c r="F38" s="11"/>
+      <c r="G38">
         <v>34424</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33">
+      <c r="H38" s="11"/>
+      <c r="I38">
         <v>68134</v>
       </c>
-      <c r="J33" s="11"/>
+      <c r="J38" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A14:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6717,8 +6771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7458,7 +7512,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7519,8 +7573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7804,6 +7858,14 @@
         <v>68134.290999999997</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+    </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>40</v>
@@ -7885,6 +7947,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7895,8 +7960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8368,8 +8433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:J19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8650,15 +8715,6 @@
       <c r="G15" t="s">
         <v>4</v>
       </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -8757,8 +8813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9247,7 +9303,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
+++ b/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Total Trab. Melhor ID " sheetId="1" r:id="rId1"/>
@@ -5682,7 +5682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -5876,17 +5876,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:I38"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7960,7 +7960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>

--- a/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
+++ b/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Total Trab. Melhor ID " sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="84">
   <si>
     <t>Sexo</t>
   </si>
@@ -269,11 +269,45 @@
   <si>
     <t xml:space="preserve">Tabela para a geração do grafico (barras) </t>
   </si>
+  <si>
+    <t>Perfil ocupacional</t>
+  </si>
+  <si>
+    <t>Porcentagem (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabalhadoras por conta própria  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homens
+(Empregadores + 
+Trabalhadores por 
+conta própria) 
+</t>
+  </si>
+  <si>
+    <t>Tabela Calculos das porcentagem só das mulheres</t>
+  </si>
+  <si>
+    <t>Tabela das porcentagens para geração dos gráficos</t>
+  </si>
+  <si>
+    <t>Médio incompleto e médio completo</t>
+  </si>
+  <si>
+    <t>Superior incompleto e superior completo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.00000000"/>
+    <numFmt numFmtId="178" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,11 +368,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -385,8 +420,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,16 +433,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,6 +506,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Total Trab. Melhor ID '!$B$8:$D$8</c:f>
@@ -525,6 +624,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Total Trab. Melhor ID '!$B$8:$D$8</c:f>
@@ -571,11 +728,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="787782464"/>
-        <c:axId val="787783008"/>
+        <c:axId val="-1055456736"/>
+        <c:axId val="-1055452384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="787782464"/>
+        <c:axId val="-1055456736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,7 +775,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="787783008"/>
+        <c:crossAx val="-1055452384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -626,7 +783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="787783008"/>
+        <c:axId val="-1055452384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +834,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="787782464"/>
+        <c:crossAx val="-1055456736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -772,6 +929,323 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Total Trab. Melhor ID '!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.2412510936132983E-3"/>
+                  <c:y val="7.5437445319335083E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9796369203849519E-2"/>
+                  <c:y val="-5.1963764946048409E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Total Trab. Melhor ID '!$J$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por conta própria  </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Homens
+(Empregadores + 
+Trabalhadores por 
+conta própria) 
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Total Trab. Melhor ID '!$J$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30549.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85194.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -803,6 +1277,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Tab. e Graf. Tipo de Area'!$A$19:$B$26</c:f>
@@ -909,6 +1441,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Tab. e Graf. Tipo de Area'!$A$19:$B$26</c:f>
@@ -1015,6 +1605,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Tab. e Graf. Tipo de Area'!$A$19:$B$26</c:f>
@@ -1107,11 +1755,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="787777024"/>
-        <c:axId val="970522160"/>
+        <c:axId val="-1055449120"/>
+        <c:axId val="-1055446400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="787777024"/>
+        <c:axId val="-1055449120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1802,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="970522160"/>
+        <c:crossAx val="-1055446400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1162,7 +1810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="970522160"/>
+        <c:axId val="-1055446400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1861,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="787777024"/>
+        <c:crossAx val="-1055449120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1294,7 +1942,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1422,6 +2070,129 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4037620297462821E-3"/>
+                  <c:y val="-7.5878900554097364E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1776246719160106E-2"/>
+                  <c:y val="-2.7123067949839604E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1687117235345582E-2"/>
+                  <c:y val="1.633821813939924E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7869641294838147E-3"/>
+                  <c:y val="-2.7303878681831438E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Tab. e Graf. Tipo de Area'!$A$49:$E$49</c:f>
@@ -1474,456 +2245,10 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tab. e Graf. Tipo de Area'!$C$73</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Empregadoras</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$B$77</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Capital</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Resto da RM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Resto da RIDE </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Demais Municipios </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tab. e Graf. Tipo de Area'!$C$74:$C$77</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.08</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tab. e Graf. Tipo de Area'!$D$73</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Trabalhadoras por Contra Própria</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$B$77</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Capital</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Resto da RM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Resto da RIDE </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Demais Municipios </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tab. e Graf. Tipo de Area'!$D$74:$D$77</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tab. e Graf. Tipo de Area'!$E$73</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Empregadas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$B$77</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Capital</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Resto da RM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Resto da RIDE </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Demais Municipios </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tab. e Graf. Tipo de Area'!$E$74:$E$77</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="970514000"/>
-        <c:axId val="970509104"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="970514000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="970509104"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="970509104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="970514000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2020,18 +2345,18 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabela e Grafico Total Raça'!$B$16</c:f>
+              <c:f>'Tab. e Graf. Tipo de Area'!$C$73</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Branca</c:v>
+                  <c:v>Empregadoras</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2046,37 +2371,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabela e Grafico Total Raça'!$A$17:$A$19</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$B$77</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Empregadoras</c:v>
+                  <c:v>Capital</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Trabalhadoras por conta própria</c:v>
+                  <c:v>Resto da RM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Empregadas</c:v>
+                  <c:v>Resto da RIDE </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Demais Municipios </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabela e Grafico Total Raça'!$B$17:$B$19</c:f>
+              <c:f>'Tab. e Graf. Tipo de Area'!$C$74:$C$77</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.62439999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48299999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37519999999999998</c:v>
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2087,11 +2486,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabela e Grafico Total Raça'!$C$16</c:f>
+              <c:f>'Tab. e Graf. Tipo de Area'!$D$73</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Preta</c:v>
+                  <c:v>Trabalhadoras por Contra Própria</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2106,37 +2505,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabela e Grafico Total Raça'!$A$17:$A$19</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$B$77</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Empregadoras</c:v>
+                  <c:v>Capital</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Trabalhadoras por conta própria</c:v>
+                  <c:v>Resto da RM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Empregadas</c:v>
+                  <c:v>Resto da RIDE </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Demais Municipios </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabela e Grafico Total Raça'!$C$17:$C$19</c:f>
+              <c:f>'Tab. e Graf. Tipo de Area'!$D$74:$D$77</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0200000000000001E-2</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1399999999999995E-2</c:v>
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2147,11 +2620,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabela e Grafico Total Raça'!$D$16</c:f>
+              <c:f>'Tab. e Graf. Tipo de Area'!$E$73</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Amarela</c:v>
+                  <c:v>Empregadas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2166,157 +2639,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabela e Grafico Total Raça'!$A$17:$A$19</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$B$77</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tab. e Graf. Tipo de Area'!$A$74:$A$77</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Empregadoras</c:v>
+                  <c:v>Capital</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Trabalhadoras por conta própria</c:v>
+                  <c:v>Resto da RM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Empregadas</c:v>
+                  <c:v>Resto da RIDE </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Demais Municipios </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabela e Grafico Total Raça'!$D$17:$D$19</c:f>
+              <c:f>'Tab. e Graf. Tipo de Area'!$E$74:$E$77</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6400000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tabela e Grafico Total Raça'!$E$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Parda</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tabela e Grafico Total Raça'!$A$17:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Empregadoras</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Trabalhadoras por conta própria</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Empregadas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tabela e Grafico Total Raça'!$E$17:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.37559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47689999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51700000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tabela e Grafico Total Raça'!$F$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Indígena</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tabela e Grafico Total Raça'!$A$17:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Empregadoras</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Trabalhadoras por conta própria</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Empregadas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tabela e Grafico Total Raça'!$F$17:$F$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2330,13 +2757,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="970511824"/>
-        <c:axId val="970516720"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-1055453472"/>
+        <c:axId val="-1055458368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="970511824"/>
+        <c:axId val="-1055453472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,7 +2806,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="970516720"/>
+        <c:crossAx val="-1055458368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2387,7 +2814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="970516720"/>
+        <c:axId val="-1055458368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,7 +2834,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2438,7 +2865,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="970511824"/>
+        <c:crossAx val="-1055453472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2467,6 +2894,1405 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Branca</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$A$17:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por conta própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela e Grafico Total Raça'!$B$17:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.62439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37519999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$A$17:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por conta própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela e Grafico Total Raça'!$C$17:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1399999999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amarela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$A$17:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por conta própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela e Grafico Total Raça'!$D$17:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6400000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$A$17:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por conta própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela e Grafico Total Raça'!$E$17:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.37559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Indígena</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela e Grafico Total Raça'!$A$17:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por conta própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela e Grafico Total Raça'!$F$17:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1055450752"/>
+        <c:axId val="-1055457824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1055450752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1055457824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1055457824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1055450752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0707455782047591E-2"/>
+          <c:y val="4.9937999175725493E-2"/>
+          <c:w val="0.89732001161382824"/>
+          <c:h val="0.6584130071961809"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela Escolaridade'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sem instrução até fundamental completo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela Escolaridade'!$B$25:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por Contra Própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela Escolaridade'!$B$26:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela Escolaridade'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Médio incompleto e médio completo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela Escolaridade'!$B$25:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por Contra Própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela Escolaridade'!$B$27:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela Escolaridade'!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Superior incompleto e superior completo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela Escolaridade'!$B$25:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por Contra Própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela Escolaridade'!$B$28:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1052864608"/>
+        <c:axId val="-1052859168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1052864608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1052859168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1052859168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1052864608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9523641155355712E-2"/>
+          <c:y val="0.8540763739610957"/>
+          <c:w val="0.89890527400550302"/>
+          <c:h val="0.12303378684453053"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2719,6 +4545,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3223,509 +5129,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4244,8 +5647,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4407,6 +5810,523 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4750,6 +6670,1014 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5279,6 +8207,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5400,6 +8358,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>957262</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5680,10 +8673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5692,10 +8685,14 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" customWidth="1"/>
+    <col min="12" max="12" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5714,8 +8711,23 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5739,8 +8751,22 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="2">
+        <v>3161</v>
+      </c>
+      <c r="K2" s="2">
+        <v>30549.9</v>
+      </c>
+      <c r="L2" s="2">
+        <f>SUM(D2,D3)</f>
+        <v>85194.5</v>
+      </c>
+      <c r="M2" s="2">
+        <f>SUM(J2,K2,L2)</f>
+        <v>118905.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5764,8 +8790,26 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="40">
+        <f>J2/M2</f>
+        <v>2.6584158499109379E-2</v>
+      </c>
+      <c r="K3" s="39">
+        <f>K2/M2</f>
+        <v>0.25692609418916218</v>
+      </c>
+      <c r="L3" s="38">
+        <f>L2/M2</f>
+        <v>0.71648974731172854</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5790,7 +8834,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5815,15 +8859,15 @@
         <v>223286.40000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -5834,7 +8878,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -5848,7 +8892,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -5877,7 +8921,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5890,12 +8934,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6421,12 +9465,12 @@
       <c r="J17" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -6557,12 +9601,12 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6597,7 +9641,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
@@ -6771,8 +9815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:E77"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6784,12 +9828,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6886,7 +9930,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -6918,7 +9962,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="37"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -6948,7 +9992,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -6980,7 +10024,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="37"/>
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -7010,7 +10054,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
@@ -7042,7 +10086,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="37"/>
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -7072,7 +10116,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
@@ -7104,7 +10148,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="37"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -7134,12 +10178,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -7327,13 +10371,13 @@
       <c r="F28" s="11"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -7367,7 +10411,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="33" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="36"/>
@@ -7392,7 +10436,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B74" t="s">
@@ -7573,8 +10617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7859,12 +10903,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -7890,19 +10934,19 @@
       <c r="A17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="3">
         <v>0.62439999999999996</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="3">
         <v>0</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="3">
         <v>0.37559999999999999</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7910,19 +10954,19 @@
       <c r="A18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="3">
         <v>0.48299999999999998</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="3">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="3">
         <v>0.47689999999999999</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="3">
         <v>0.71</v>
       </c>
     </row>
@@ -7930,19 +10974,19 @@
       <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="3">
         <v>0.37519999999999998</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="3">
         <v>9.1399999999999995E-2</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="3">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="3">
         <v>0.51700000000000002</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7960,8 +11004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8433,7 +11477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H15" sqref="H15:J15"/>
     </sheetView>
   </sheetViews>
@@ -8814,7 +11858,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8860,7 +11904,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
@@ -8897,7 +11941,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+      <c r="A3" s="37"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -8957,7 +12001,7 @@
       <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>38</v>
       </c>
       <c r="B5" t="s">
@@ -8994,7 +12038,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="37"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -9054,7 +12098,7 @@
       <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B8" t="s">
@@ -9091,7 +12135,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="37"/>
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -9151,7 +12195,7 @@
       <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
@@ -9188,7 +12232,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -9300,10 +12344,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9317,10 +12361,10 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
@@ -9352,7 +12396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>35</v>
       </c>
@@ -9384,7 +12428,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" t="s">
         <v>2</v>
@@ -9414,7 +12458,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>38</v>
       </c>
@@ -9446,7 +12490,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>2</v>
@@ -9476,7 +12520,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
@@ -9508,7 +12552,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>2</v>
@@ -9538,7 +12582,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -9570,7 +12614,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" t="s">
         <v>2</v>
@@ -9600,7 +12644,257 @@
         <v>0.69</v>
       </c>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2438.8200000000002</v>
+      </c>
+      <c r="D16" s="11">
+        <f>C16/C19</f>
+        <v>0.77166370824592556</v>
+      </c>
+      <c r="E16" s="1">
+        <v>20429.88</v>
+      </c>
+      <c r="F16" s="11">
+        <f>E16/E19</f>
+        <v>0.66873803187571812</v>
+      </c>
+      <c r="G16" s="1">
+        <v>16948.96</v>
+      </c>
+      <c r="H16" s="11">
+        <f>G16/G19</f>
+        <v>0.49235996365318069</v>
+      </c>
+      <c r="I16" s="1">
+        <v>39817.660000000003</v>
+      </c>
+      <c r="J16" s="42">
+        <v>0.59</v>
+      </c>
+      <c r="K16" s="43">
+        <f>I16/I19</f>
+        <v>0.58439972002350071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11">
+        <f>C17/C19</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4245.16</v>
+      </c>
+      <c r="F17" s="11">
+        <f>E17/E19</f>
+        <v>0.13895822899583959</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8947.18</v>
+      </c>
+      <c r="H17" s="11">
+        <f>G17/G19</f>
+        <v>0.25991171255336409</v>
+      </c>
+      <c r="I17" s="1">
+        <v>13192.34</v>
+      </c>
+      <c r="J17" s="42">
+        <f>I17/I19</f>
+        <v>0.19362262379192624</v>
+      </c>
+      <c r="K17">
+        <f>I17/I19</f>
+        <v>0.19362262379192624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>721.65</v>
+      </c>
+      <c r="D18" s="11">
+        <f>C18/C19</f>
+        <v>0.22833629175407455</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5874.87</v>
+      </c>
+      <c r="F18" s="11">
+        <f>E18/E19</f>
+        <v>0.19230406646175599</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8527.7800000000007</v>
+      </c>
+      <c r="H18" s="11">
+        <f>G18/G19</f>
+        <v>0.24772832379345527</v>
+      </c>
+      <c r="I18" s="1">
+        <v>15124.3</v>
+      </c>
+      <c r="J18" s="42">
+        <f>I18/I19</f>
+        <v>0.22197780295354955</v>
+      </c>
+      <c r="K18">
+        <f>I18/I19</f>
+        <v>0.22197780295354955</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3160.47</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="1">
+        <v>30549.9</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="1">
+        <v>34423.919999999998</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="1">
+        <v>68134.289999999994</v>
+      </c>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.22</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:D24"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
+++ b/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Total Trab. Melhor ID " sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Calculo Escolaridade M" sheetId="7" r:id="rId7"/>
     <sheet name="Calculo Escolaridade H e M" sheetId="9" r:id="rId8"/>
     <sheet name="Tabela Escolaridade" sheetId="10" r:id="rId9"/>
+    <sheet name="Media de Idade Melhor Idade" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="85">
   <si>
     <t>Sexo</t>
   </si>
@@ -297,6 +298,9 @@
   <si>
     <t>Superior incompleto e superior completo</t>
   </si>
+  <si>
+    <t>Ocupação</t>
+  </si>
 </sst>
 </file>
 
@@ -304,9 +308,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="0.00000000"/>
-    <numFmt numFmtId="178" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -421,6 +425,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,12 +446,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,11 +732,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1055456736"/>
-        <c:axId val="-1055452384"/>
+        <c:axId val="-1235623680"/>
+        <c:axId val="-1281591440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1055456736"/>
+        <c:axId val="-1235623680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +779,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1055452384"/>
+        <c:crossAx val="-1281591440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -783,7 +787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1055452384"/>
+        <c:axId val="-1281591440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,7 +838,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1055456736"/>
+        <c:crossAx val="-1235623680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1755,11 +1759,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1055449120"/>
-        <c:axId val="-1055446400"/>
+        <c:axId val="-1281589264"/>
+        <c:axId val="-955526752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1055449120"/>
+        <c:axId val="-1281589264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,7 +1806,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1055446400"/>
+        <c:crossAx val="-955526752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1810,7 +1814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1055446400"/>
+        <c:axId val="-955526752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1865,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1055449120"/>
+        <c:crossAx val="-1281589264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2188,9 +2192,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2759,11 +2761,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1055453472"/>
-        <c:axId val="-1055458368"/>
+        <c:axId val="-955524576"/>
+        <c:axId val="-955527840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1055453472"/>
+        <c:axId val="-955524576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2806,7 +2808,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1055458368"/>
+        <c:crossAx val="-955527840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2814,7 +2816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1055458368"/>
+        <c:axId val="-955527840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2865,7 +2867,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1055453472"/>
+        <c:crossAx val="-955524576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3567,11 +3569,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1055450752"/>
-        <c:axId val="-1055457824"/>
+        <c:axId val="-955524032"/>
+        <c:axId val="-955528384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1055450752"/>
+        <c:axId val="-955524032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3614,7 +3616,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1055457824"/>
+        <c:crossAx val="-955528384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3622,7 +3624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1055457824"/>
+        <c:axId val="-955528384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3673,7 +3675,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1055450752"/>
+        <c:crossAx val="-955524032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4149,11 +4151,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1052864608"/>
-        <c:axId val="-1052859168"/>
+        <c:axId val="-955520768"/>
+        <c:axId val="-955520224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1052864608"/>
+        <c:axId val="-955520768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,7 +4198,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052859168"/>
+        <c:crossAx val="-955520224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4204,7 +4206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1052859168"/>
+        <c:axId val="-955520224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,7 +4257,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052864608"/>
+        <c:crossAx val="-955520768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8675,7 +8677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -8793,15 +8795,15 @@
       <c r="I3" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="35">
         <f>J2/M2</f>
         <v>2.6584158499109379E-2</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="34">
         <f>K2/M2</f>
         <v>0.25692609418916218</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="33">
         <f>L2/M2</f>
         <v>0.71648974731172854</v>
       </c>
@@ -8860,12 +8862,12 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -8913,6 +8915,68 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>71.02</v>
+      </c>
+      <c r="C2" s="2">
+        <v>67.113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>66.558999999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <v>66.600999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>64.132999999999996</v>
+      </c>
+      <c r="C4" s="2">
+        <v>64.034999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -8934,12 +8998,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8974,7 +9038,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="40" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -9011,7 +9075,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="40"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -9071,7 +9135,7 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -9108,7 +9172,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="41"/>
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -9168,7 +9232,7 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="41" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
@@ -9205,7 +9269,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="41"/>
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -9265,7 +9329,7 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="41" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -9302,7 +9366,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="41"/>
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -9362,7 +9426,7 @@
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="42" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -9402,7 +9466,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="42"/>
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -9465,12 +9529,12 @@
       <c r="J17" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -9601,12 +9665,12 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
     </row>
     <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -9815,7 +9879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -9828,12 +9892,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -9868,7 +9932,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -9900,7 +9964,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="42"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -9930,7 +9994,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -9962,7 +10026,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -9992,7 +10056,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -10024,7 +10088,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+      <c r="A8" s="43"/>
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -10054,7 +10118,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
@@ -10086,7 +10150,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="43"/>
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -10116,7 +10180,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="43" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
@@ -10148,7 +10212,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="43"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -10178,12 +10242,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -10371,13 +10435,13 @@
       <c r="F28" s="11"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -10411,12 +10475,12 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
     </row>
     <row r="73" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -10556,7 +10620,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10903,12 +10967,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -11004,7 +11068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -11904,7 +11968,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
@@ -11941,7 +12005,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="43"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -12001,7 +12065,7 @@
       <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="43" t="s">
         <v>38</v>
       </c>
       <c r="B5" t="s">
@@ -12038,7 +12102,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="43"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -12098,7 +12162,7 @@
       <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="43" t="s">
         <v>36</v>
       </c>
       <c r="B8" t="s">
@@ -12135,7 +12199,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -12195,7 +12259,7 @@
       <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
@@ -12232,7 +12296,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -12645,11 +12709,11 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
@@ -12714,10 +12778,10 @@
       <c r="I16" s="1">
         <v>39817.660000000003</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="37">
         <v>0.59</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="38">
         <f>I16/I19</f>
         <v>0.58439972002350071</v>
       </c>
@@ -12753,7 +12817,7 @@
       <c r="I17" s="1">
         <v>13192.34</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="37">
         <f>I17/I19</f>
         <v>0.19362262379192624</v>
       </c>
@@ -12793,7 +12857,7 @@
       <c r="I18" s="1">
         <v>15124.3</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="37">
         <f>I18/I19</f>
         <v>0.22197780295354955</v>
       </c>
@@ -12827,12 +12891,12 @@
       <c r="J19" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">

--- a/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
+++ b/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Melhor_idade_Resultados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MediaLab\Documents\GitHub\lapei\03_Sebrae\01_Relatório2022\Relatório_Sebrae2022\00_capítulo_PNADc\Planilha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\lapei\03_Sebrae\01_Relatório2022\Relatório_Sebrae2022\00_capítulo_PNADc\Planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCCE54F-B356-44BC-8D86-FF436B0FED1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9135"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Trab. Melhor ID" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,26 @@
     <sheet name="Total Raça" sheetId="4" r:id="rId4"/>
     <sheet name="Escolaridade" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Sexo</t>
   </si>
@@ -84,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,11 +426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,13 +562,18 @@
         <v>223286.40000000002</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -688,7 +703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -700,7 +715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -712,7 +727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
